--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/endo-hiroto-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACC18D9-08F6-4494-9CCF-1C21B69CC8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D372E8-1305-4427-835D-1220A292FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="168">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -826,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +1008,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,12 +1028,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFA8EB9"/>
-      <color rgb="FFE77EF7"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1333,8 +1339,8 @@
   <dimension ref="B2:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1860,8 +1866,8 @@
       <c r="G23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>12</v>
+      <c r="H23" s="64">
+        <v>0.3</v>
       </c>
       <c r="I23" s="11"/>
     </row>
@@ -1885,8 +1891,8 @@
       <c r="G24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>12</v>
+      <c r="H24" s="64">
+        <v>0.05</v>
       </c>
       <c r="I24" s="11"/>
     </row>
@@ -1935,8 +1941,8 @@
       <c r="G26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>12</v>
+      <c r="H26" s="64">
+        <v>0.05</v>
       </c>
       <c r="I26" s="11"/>
     </row>
@@ -2135,8 +2141,8 @@
       <c r="G34" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>12</v>
+      <c r="H34" s="64">
+        <v>0.5</v>
       </c>
       <c r="I34" s="11"/>
     </row>
@@ -2185,8 +2191,8 @@
       <c r="G36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>12</v>
+      <c r="H36" s="64">
+        <v>0.05</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -2260,8 +2266,8 @@
       <c r="G39" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>12</v>
+      <c r="H39" s="63">
+        <v>0.1</v>
       </c>
       <c r="I39" s="19"/>
     </row>
@@ -2285,8 +2291,8 @@
       <c r="G40" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>12</v>
+      <c r="H40" s="63">
+        <v>0.1</v>
       </c>
       <c r="I40" s="19"/>
     </row>
@@ -2335,8 +2341,8 @@
       <c r="G42" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="18" t="s">
-        <v>12</v>
+      <c r="H42" s="63">
+        <v>0.1</v>
       </c>
       <c r="I42" s="19"/>
     </row>
@@ -2460,8 +2466,8 @@
       <c r="G47" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>12</v>
+      <c r="H47" s="63">
+        <v>0.1</v>
       </c>
       <c r="I47" s="19"/>
     </row>
@@ -2535,7 +2541,7 @@
       <c r="G50" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="62">
         <v>0</v>
       </c>
       <c r="I50" s="38"/>
@@ -2560,7 +2566,7 @@
       <c r="G51" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="62">
         <v>0</v>
       </c>
       <c r="I51" s="38"/>
@@ -2610,7 +2616,7 @@
       <c r="G53" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="62">
         <v>0</v>
       </c>
       <c r="I53" s="38"/>
@@ -2735,7 +2741,7 @@
       <c r="G58" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H58" s="37">
+      <c r="H58" s="62">
         <v>0</v>
       </c>
       <c r="I58" s="38"/>
@@ -2810,8 +2816,8 @@
       <c r="G61" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H61" s="46" t="s">
-        <v>12</v>
+      <c r="H61" s="61">
+        <v>0.7</v>
       </c>
       <c r="I61" s="47"/>
     </row>
@@ -2835,8 +2841,8 @@
       <c r="G62" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H62" s="46" t="s">
-        <v>12</v>
+      <c r="H62" s="61">
+        <v>0.7</v>
       </c>
       <c r="I62" s="47"/>
     </row>
@@ -2935,8 +2941,8 @@
       <c r="G66" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="46" t="s">
-        <v>12</v>
+      <c r="H66" s="61">
+        <v>0.3</v>
       </c>
       <c r="I66" s="47"/>
     </row>
@@ -3135,8 +3141,8 @@
       <c r="G74" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H74" s="46" t="s">
-        <v>12</v>
+      <c r="H74" s="61">
+        <v>0.8</v>
       </c>
       <c r="I74" s="47"/>
     </row>
@@ -3185,15 +3191,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3325,14 +3322,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/endo-hiroto-plusdojo2022_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D372E8-1305-4427-835D-1220A292FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C396A6A-D637-48FA-B422-AB36BB202B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="170">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -244,322 +244,335 @@
     <t>橋本</t>
   </si>
   <si>
+    <t>フォロー/フォロワー一覧</t>
+  </si>
+  <si>
+    <t>Result_bfServlet.java</t>
+  </si>
+  <si>
+    <t>検索結果ログイン前</t>
+  </si>
+  <si>
+    <t>高山</t>
+  </si>
+  <si>
+    <t>Result_afServlet.java</t>
+  </si>
+  <si>
+    <t>検索結果ログイン後</t>
+  </si>
+  <si>
+    <t>Ranking_bfServlet.java</t>
+  </si>
+  <si>
+    <t>ランキングログイン前</t>
+  </si>
+  <si>
+    <t>伊藤</t>
+  </si>
+  <si>
+    <t>Ranking_afServlet.java</t>
+  </si>
+  <si>
+    <t>ランキングログイン後</t>
+  </si>
+  <si>
+    <t>レビュー投稿</t>
+  </si>
+  <si>
+    <t>遠藤</t>
+  </si>
+  <si>
+    <t>Reviewlist_bfServlet.java</t>
+  </si>
+  <si>
+    <t>レビュー一覧ログイン前</t>
+  </si>
+  <si>
+    <t>Reviewlist_afServlet.java</t>
+  </si>
+  <si>
+    <t>レビュー一覧ログイン後</t>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+  </si>
+  <si>
+    <t>ログアウトページ</t>
+  </si>
+  <si>
+    <t>ProfileServlet.java</t>
+  </si>
+  <si>
+    <t>プロフィール変更</t>
+  </si>
+  <si>
+    <t>ContactServlet.java</t>
+  </si>
+  <si>
+    <t>お問い合わせ</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+  </si>
+  <si>
+    <t>common.css</t>
+  </si>
+  <si>
+    <t>全画面共通css</t>
+  </si>
+  <si>
+    <t>top.css</t>
+  </si>
+  <si>
+    <t>トップページcss</t>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>ログインページcss</t>
+  </si>
+  <si>
+    <t>register.css</t>
+  </si>
+  <si>
+    <t>新規会員登録ページcss</t>
+  </si>
+  <si>
+    <t>profile.css</t>
+  </si>
+  <si>
+    <t>マイページ/ユーザーページ/プロフィール変更css</t>
+  </si>
+  <si>
+    <t>follow_list.css</t>
+  </si>
+  <si>
+    <t>フォロー/フォロワー一覧ページcss</t>
+  </si>
+  <si>
+    <t>result.css</t>
+  </si>
+  <si>
+    <t>検索結果css</t>
+  </si>
+  <si>
+    <t>ranking.css</t>
+  </si>
+  <si>
+    <t>ランキングcss</t>
+  </si>
+  <si>
+    <t>post.css</t>
+  </si>
+  <si>
+    <t>レビュー投稿css</t>
+  </si>
+  <si>
+    <t>reviewlist.css</t>
+  </si>
+  <si>
+    <t>レビュー一覧css</t>
+  </si>
+  <si>
+    <t>contact.css</t>
+  </si>
+  <si>
+    <t>お問い合わせcss</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+  </si>
+  <si>
+    <t>common.js</t>
+  </si>
+  <si>
+    <t>全画面共通js</t>
+  </si>
+  <si>
+    <t>top.js</t>
+  </si>
+  <si>
+    <t>トップページjs</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>ログインページjs</t>
+  </si>
+  <si>
+    <t>register.js</t>
+  </si>
+  <si>
+    <t>新規会員登録ページjs</t>
+  </si>
+  <si>
+    <t>profile.js</t>
+  </si>
+  <si>
+    <t>マイページ/ユーザーページ/プロフィール変更js</t>
+  </si>
+  <si>
+    <t>follow_list.jsp</t>
+  </si>
+  <si>
+    <t>フォロー/フォロワー一覧ページjs</t>
+  </si>
+  <si>
+    <t>result.js</t>
+  </si>
+  <si>
+    <t>検索結果js</t>
+  </si>
+  <si>
+    <t>ranking.js</t>
+  </si>
+  <si>
+    <t>ランキングjs</t>
+  </si>
+  <si>
+    <t>post.js</t>
+  </si>
+  <si>
+    <t>レビュー投稿js</t>
+  </si>
+  <si>
+    <t>reviewlist.js</t>
+  </si>
+  <si>
+    <t>レビュー一覧js</t>
+  </si>
+  <si>
+    <t>contact.js</t>
+  </si>
+  <si>
+    <t>お問い合わせjs</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+  </si>
+  <si>
+    <t>top_bf.jsp</t>
+  </si>
+  <si>
+    <t>トップページログイン前jsp</t>
+  </si>
+  <si>
+    <t>top_af.jsp</t>
+  </si>
+  <si>
+    <t>トップページログイン後jsp</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>ログインページjsp</t>
+  </si>
+  <si>
+    <t>register.jsp</t>
+  </si>
+  <si>
+    <t>新規会員登録ページjsp</t>
+  </si>
+  <si>
+    <t>mypage.jsp</t>
+  </si>
+  <si>
+    <t>マイページjsp</t>
+  </si>
+  <si>
+    <t>user.jsp</t>
+  </si>
+  <si>
+    <t>ユーザーページjsp</t>
+  </si>
+  <si>
+    <t>profileEdit.jsp</t>
+  </si>
+  <si>
+    <t>プロフィール変更jsp</t>
+  </si>
+  <si>
+    <t>フォロー/フォロワー一覧ページjsp</t>
+  </si>
+  <si>
+    <t>result_bf.jsp</t>
+  </si>
+  <si>
+    <t>検索結果ログイン前jsp</t>
+  </si>
+  <si>
+    <t>result_af.jsp</t>
+  </si>
+  <si>
+    <t>検索結果ログイン後jsp</t>
+  </si>
+  <si>
+    <t>ranking_bf.jsp</t>
+  </si>
+  <si>
+    <t>ランキングログイン前jsp</t>
+  </si>
+  <si>
+    <t>ranking_af.jsp</t>
+  </si>
+  <si>
+    <t>ランキングログイン後jsp</t>
+  </si>
+  <si>
+    <t>post.jsp</t>
+  </si>
+  <si>
+    <t>レビュー投稿jsp</t>
+  </si>
+  <si>
+    <t>review_bf.jsp</t>
+  </si>
+  <si>
+    <t>レビュー一覧ログイン前jsp</t>
+  </si>
+  <si>
+    <t>review_af.jsp</t>
+  </si>
+  <si>
+    <t>レビュー一覧ログイン後jsp</t>
+  </si>
+  <si>
+    <t>contact.jsp</t>
+  </si>
+  <si>
+    <t>お問い合わせjsp</t>
+  </si>
+  <si>
     <t>FollowlistServlet.java</t>
-  </si>
-  <si>
-    <t>フォロー/フォロワー一覧</t>
-  </si>
-  <si>
-    <t>Result_bfServlet.java</t>
-  </si>
-  <si>
-    <t>検索結果ログイン前</t>
-  </si>
-  <si>
-    <t>高山</t>
-  </si>
-  <si>
-    <t>Result_afServlet.java</t>
-  </si>
-  <si>
-    <t>検索結果ログイン後</t>
-  </si>
-  <si>
-    <t>Ranking_bfServlet.java</t>
-  </si>
-  <si>
-    <t>ランキングログイン前</t>
-  </si>
-  <si>
-    <t>伊藤</t>
-  </si>
-  <si>
-    <t>Ranking_afServlet.java</t>
-  </si>
-  <si>
-    <t>ランキングログイン後</t>
-  </si>
-  <si>
-    <t>ReviewpostServlet.java</t>
-  </si>
-  <si>
-    <t>レビュー投稿</t>
-  </si>
-  <si>
-    <t>遠藤</t>
-  </si>
-  <si>
-    <t>Reviewlist_bfServlet.java</t>
-  </si>
-  <si>
-    <t>レビュー一覧ログイン前</t>
-  </si>
-  <si>
-    <t>Reviewlist_afServlet.java</t>
-  </si>
-  <si>
-    <t>レビュー一覧ログイン後</t>
-  </si>
-  <si>
-    <t>LogoutServlet.java</t>
-  </si>
-  <si>
-    <t>ログアウトページ</t>
-  </si>
-  <si>
-    <t>ProfileServlet.java</t>
-  </si>
-  <si>
-    <t>プロフィール変更</t>
-  </si>
-  <si>
-    <t>ContactServlet.java</t>
-  </si>
-  <si>
-    <t>お問い合わせ</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>WebContent/css</t>
-  </si>
-  <si>
-    <t>common.css</t>
-  </si>
-  <si>
-    <t>全画面共通css</t>
-  </si>
-  <si>
-    <t>top.css</t>
-  </si>
-  <si>
-    <t>トップページcss</t>
-  </si>
-  <si>
-    <t>login.css</t>
-  </si>
-  <si>
-    <t>ログインページcss</t>
-  </si>
-  <si>
-    <t>register.css</t>
-  </si>
-  <si>
-    <t>新規会員登録ページcss</t>
-  </si>
-  <si>
-    <t>profile.css</t>
-  </si>
-  <si>
-    <t>マイページ/ユーザーページ/プロフィール変更css</t>
-  </si>
-  <si>
-    <t>follow_list.css</t>
-  </si>
-  <si>
-    <t>フォロー/フォロワー一覧ページcss</t>
-  </si>
-  <si>
-    <t>result.css</t>
-  </si>
-  <si>
-    <t>検索結果css</t>
-  </si>
-  <si>
-    <t>ranking.css</t>
-  </si>
-  <si>
-    <t>ランキングcss</t>
-  </si>
-  <si>
-    <t>post.css</t>
-  </si>
-  <si>
-    <t>レビュー投稿css</t>
-  </si>
-  <si>
-    <t>reviewlist.css</t>
-  </si>
-  <si>
-    <t>レビュー一覧css</t>
-  </si>
-  <si>
-    <t>contact.css</t>
-  </si>
-  <si>
-    <t>お問い合わせcss</t>
-  </si>
-  <si>
-    <t>javascript</t>
-  </si>
-  <si>
-    <t>WebContent/js</t>
-  </si>
-  <si>
-    <t>common.js</t>
-  </si>
-  <si>
-    <t>全画面共通js</t>
-  </si>
-  <si>
-    <t>top.js</t>
-  </si>
-  <si>
-    <t>トップページjs</t>
-  </si>
-  <si>
-    <t>login.js</t>
-  </si>
-  <si>
-    <t>ログインページjs</t>
-  </si>
-  <si>
-    <t>register.js</t>
-  </si>
-  <si>
-    <t>新規会員登録ページjs</t>
-  </si>
-  <si>
-    <t>profile.js</t>
-  </si>
-  <si>
-    <t>マイページ/ユーザーページ/プロフィール変更js</t>
-  </si>
-  <si>
-    <t>follow_list.jsp</t>
-  </si>
-  <si>
-    <t>フォロー/フォロワー一覧ページjs</t>
-  </si>
-  <si>
-    <t>result.js</t>
-  </si>
-  <si>
-    <t>検索結果js</t>
-  </si>
-  <si>
-    <t>ranking.js</t>
-  </si>
-  <si>
-    <t>ランキングjs</t>
-  </si>
-  <si>
-    <t>post.js</t>
-  </si>
-  <si>
-    <t>レビュー投稿js</t>
-  </si>
-  <si>
-    <t>reviewlist.js</t>
-  </si>
-  <si>
-    <t>レビュー一覧js</t>
-  </si>
-  <si>
-    <t>contact.js</t>
-  </si>
-  <si>
-    <t>お問い合わせjs</t>
-  </si>
-  <si>
-    <t>jsp</t>
-  </si>
-  <si>
-    <t>WebContent/WEB-INF/jsp</t>
-  </si>
-  <si>
-    <t>top_bf.jsp</t>
-  </si>
-  <si>
-    <t>トップページログイン前jsp</t>
-  </si>
-  <si>
-    <t>top_af.jsp</t>
-  </si>
-  <si>
-    <t>トップページログイン後jsp</t>
-  </si>
-  <si>
-    <t>login.jsp</t>
-  </si>
-  <si>
-    <t>ログインページjsp</t>
-  </si>
-  <si>
-    <t>register.jsp</t>
-  </si>
-  <si>
-    <t>新規会員登録ページjsp</t>
-  </si>
-  <si>
-    <t>mypage.jsp</t>
-  </si>
-  <si>
-    <t>マイページjsp</t>
-  </si>
-  <si>
-    <t>user.jsp</t>
-  </si>
-  <si>
-    <t>ユーザーページjsp</t>
-  </si>
-  <si>
-    <t>profileEdit.jsp</t>
-  </si>
-  <si>
-    <t>プロフィール変更jsp</t>
-  </si>
-  <si>
-    <t>フォロー/フォロワー一覧ページjsp</t>
-  </si>
-  <si>
-    <t>result_bf.jsp</t>
-  </si>
-  <si>
-    <t>検索結果ログイン前jsp</t>
-  </si>
-  <si>
-    <t>result_af.jsp</t>
-  </si>
-  <si>
-    <t>検索結果ログイン後jsp</t>
-  </si>
-  <si>
-    <t>ranking_bf.jsp</t>
-  </si>
-  <si>
-    <t>ランキングログイン前jsp</t>
-  </si>
-  <si>
-    <t>ranking_af.jsp</t>
-  </si>
-  <si>
-    <t>ランキングログイン後jsp</t>
-  </si>
-  <si>
-    <t>post.jsp</t>
-  </si>
-  <si>
-    <t>レビュー投稿jsp</t>
-  </si>
-  <si>
-    <t>review_bf.jsp</t>
-  </si>
-  <si>
-    <t>レビュー一覧ログイン前jsp</t>
-  </si>
-  <si>
-    <t>review_af.jsp</t>
-  </si>
-  <si>
-    <t>レビュー一覧ログイン後jsp</t>
-  </si>
-  <si>
-    <t>contact.jsp</t>
-  </si>
-  <si>
-    <t>お問い合わせjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PostServlet.java</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -569,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,7 +615,8 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Meiryo UI"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -616,7 +630,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1040,7 +1055,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1336,14 +1351,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:I79"/>
+  <dimension ref="B2:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
@@ -1356,7 +1371,7 @@
     <col min="9" max="9" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,9 +1397,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B3:B35" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -1405,9 +1420,9 @@
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -1428,9 +1443,9 @@
       </c>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1451,9 +1466,9 @@
       </c>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -1474,9 +1489,9 @@
       </c>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -1497,9 +1512,9 @@
       </c>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1520,9 +1535,9 @@
       </c>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1543,9 +1558,9 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -1566,9 +1581,9 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="23">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -1589,9 +1604,9 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="28" t="s">
@@ -1612,9 +1627,9 @@
       </c>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
@@ -1635,9 +1650,9 @@
       </c>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -1658,9 +1673,9 @@
       </c>
       <c r="I14" s="32"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -1681,9 +1696,9 @@
       </c>
       <c r="I15" s="32"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -1704,9 +1719,9 @@
       </c>
       <c r="I16" s="32"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="28" t="s">
@@ -1727,9 +1742,9 @@
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="28" t="s">
@@ -1750,9 +1765,9 @@
       </c>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -1773,9 +1788,9 @@
       </c>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -1796,9 +1811,9 @@
       </c>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1821,9 +1836,9 @@
       </c>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1846,9 +1861,9 @@
       </c>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -1871,9 +1886,9 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -1896,9 +1911,9 @@
       </c>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -1921,9 +1936,9 @@
       </c>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -1933,10 +1948,10 @@
         <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>56</v>
@@ -1946,9 +1961,9 @@
       </c>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -1958,22 +1973,18 @@
         <v>48</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -1983,22 +1994,22 @@
         <v>48</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -2008,22 +2019,22 @@
         <v>48</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -2033,22 +2044,22 @@
         <v>48</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -2058,22 +2069,22 @@
         <v>48</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2083,22 +2094,22 @@
         <v>48</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -2108,22 +2119,22 @@
         <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -2133,22 +2144,22 @@
         <v>48</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="64">
-        <v>0.5</v>
+        <v>74</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -2158,22 +2169,22 @@
         <v>48</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="H35" s="64">
+        <v>0.5</v>
       </c>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B36:B67" si="1">ROW()-2</f>
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2183,110 +2194,110 @@
         <v>48</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="D38" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="64">
-        <v>0.05</v>
-      </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="14">
-        <f>ROW()-2</f>
-        <v>35</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="G38" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="14">
-        <f>ROW()-2</f>
-        <v>36</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="G39" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="14">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F40" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="14">
-        <f>ROW()-2</f>
-        <v>37</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="14">
-        <f>ROW()-2</f>
-        <v>38</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>56</v>
@@ -2296,272 +2307,272 @@
       </c>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="14">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="14">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="14">
-        <f>ROW()-2</f>
-        <v>40</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="14" t="s">
+      <c r="G43" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="14">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F44" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="14">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="14">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="14">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="14">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="63">
+      <c r="H48" s="63">
         <v>0.1</v>
       </c>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="14">
-        <f>ROW()-2</f>
-        <v>41</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="14">
-        <f>ROW()-2</f>
-        <v>42</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="14">
-        <f>ROW()-2</f>
-        <v>43</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="14">
-        <f>ROW()-2</f>
-        <v>44</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="14">
-        <f>ROW()-2</f>
-        <v>45</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="14" t="s">
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="33">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="D49" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="33">
-        <f>ROW()-2</f>
-        <v>46</v>
-      </c>
-      <c r="C48" s="34" t="s">
+      <c r="E49" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="F49" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="G49" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="33">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F50" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="33">
-        <f>ROW()-2</f>
-        <v>47</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E49" s="33" t="s">
+      <c r="G50" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="33">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F51" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="38"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="33">
-        <f>ROW()-2</f>
-        <v>48</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="62">
-        <v>0</v>
-      </c>
-      <c r="I50" s="38"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="33">
-        <f>ROW()-2</f>
-        <v>49</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>120</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>56</v>
@@ -2571,274 +2582,274 @@
       </c>
       <c r="I51" s="38"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="33">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="62">
+        <v>0</v>
+      </c>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="33">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="33">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F54" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="G52" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="38"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="33">
-        <f>ROW()-2</f>
+      <c r="G54" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="62">
+        <v>0</v>
+      </c>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="33">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="33">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="33">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="33">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="33">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="62">
+        <v>0</v>
+      </c>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="41">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="62">
-        <v>0</v>
-      </c>
-      <c r="I53" s="38"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="33">
-        <f>ROW()-2</f>
-        <v>52</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="38"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="33">
-        <f>ROW()-2</f>
-        <v>53</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="38"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="33">
-        <f>ROW()-2</f>
-        <v>54</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="38"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="33">
-        <f>ROW()-2</f>
-        <v>55</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="38"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="33">
-        <f>ROW()-2</f>
-        <v>56</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="33" t="s">
+      <c r="H60" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="47"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="41">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="D61" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="G58" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="62">
-        <v>0</v>
-      </c>
-      <c r="I58" s="38"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="41">
-        <f>ROW()-2</f>
-        <v>57</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="41" t="s">
+      <c r="E61" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="44" t="s">
+      <c r="F61" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="G59" s="59" t="s">
+      <c r="G61" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H59" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="47"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="41">
-        <f>ROW()-2</f>
-        <v>58</v>
-      </c>
-      <c r="C60" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="41" t="s">
+      <c r="H61" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="47"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="41">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F62" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="G60" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="47"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="41">
-        <f>ROW()-2</f>
-        <v>59</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="I61" s="47"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="41">
-        <f>ROW()-2</f>
-        <v>60</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="58" t="s">
         <v>56</v>
       </c>
       <c r="H62" s="61">
@@ -2846,47 +2857,47 @@
       </c>
       <c r="I62" s="47"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>142</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="H63" s="46" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="H63" s="61">
+        <v>0.7</v>
       </c>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>61</v>
@@ -2896,22 +2907,22 @@
       </c>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" s="41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="50" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>145</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>61</v>
@@ -2921,254 +2932,279 @@
       </c>
       <c r="I65" s="47"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B66" s="41">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F66" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="47"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="41">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="I67" s="47"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="41">
+        <f t="shared" ref="B68:B75" si="2">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G68" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="47"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="41">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H69" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="47"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B70" s="41">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="47"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B71" s="41">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="47"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B72" s="41">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="47"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B73" s="41">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="47"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B74" s="41">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="G74" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="47"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B75" s="41">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="I66" s="47"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="41">
-        <f>ROW()-2</f>
-        <v>65</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H67" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="47"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="41">
-        <f>ROW()-2</f>
-        <v>66</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="47"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="41">
-        <f>ROW()-2</f>
-        <v>67</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F69" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G69" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H69" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="47"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="41">
-        <f>ROW()-2</f>
-        <v>68</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="G70" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="47"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="41">
-        <f>ROW()-2</f>
-        <v>69</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="G71" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="47"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="41">
-        <f>ROW()-2</f>
-        <v>70</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="47"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="41">
-        <f>ROW()-2</f>
-        <v>71</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G73" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H73" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="47"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="41">
-        <f>ROW()-2</f>
-        <v>72</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F74" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="G74" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="61">
+      <c r="H75" s="61">
         <v>0.8</v>
       </c>
-      <c r="I74" s="47"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="2"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="2:9">
+      <c r="I75" s="47"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B76" s="2"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -3176,8 +3212,8 @@
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G156">
-    <sortCondition ref="D11:D156"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G157">
+    <sortCondition ref="D11:D157"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3185,9 +3221,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3323,22 +3362,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C396A6A-D637-48FA-B422-AB36BB202B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29843996-D034-4C9F-B0F2-8678C24CA21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -307,9 +307,6 @@
     <t>プロフィール変更</t>
   </si>
   <si>
-    <t>ContactServlet.java</t>
-  </si>
-  <si>
     <t>お問い合わせ</t>
   </si>
   <si>
@@ -572,6 +569,10 @@
   </si>
   <si>
     <t>PostServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContactServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1355,7 +1356,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1948,7 +1949,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>62</v>
@@ -1973,10 +1974,10 @@
         <v>48</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="64"/>
@@ -2094,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>73</v>
@@ -2219,10 +2220,10 @@
         <v>48</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>56</v>
@@ -2238,16 +2239,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="F38" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>74</v>
@@ -2263,16 +2264,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="E39" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>51</v>
@@ -2288,16 +2289,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="E40" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>56</v>
@@ -2313,16 +2314,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="E41" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>56</v>
@@ -2338,16 +2339,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="E42" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>61</v>
@@ -2363,16 +2364,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="E43" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>56</v>
@@ -2388,16 +2389,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="E44" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>65</v>
@@ -2413,16 +2414,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="E45" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>70</v>
@@ -2438,16 +2439,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="E46" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>74</v>
@@ -2463,16 +2464,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="E47" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>74</v>
@@ -2488,16 +2489,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="E48" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="G48" s="17" t="s">
         <v>56</v>
@@ -2513,16 +2514,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="E49" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="F49" s="52" t="s">
         <v>111</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>112</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>74</v>
@@ -2538,16 +2539,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>110</v>
-      </c>
       <c r="E50" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>114</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>51</v>
@@ -2563,16 +2564,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>110</v>
-      </c>
       <c r="E51" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>116</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>56</v>
@@ -2588,16 +2589,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E52" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>118</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>56</v>
@@ -2613,16 +2614,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E53" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>119</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>120</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>61</v>
@@ -2638,16 +2639,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E54" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>121</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>122</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>56</v>
@@ -2663,16 +2664,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E55" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>65</v>
@@ -2688,16 +2689,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E56" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>70</v>
@@ -2713,16 +2714,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E57" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>74</v>
@@ -2738,16 +2739,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E58" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>74</v>
@@ -2763,16 +2764,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="53" t="s">
-        <v>110</v>
-      </c>
       <c r="E59" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>132</v>
       </c>
       <c r="G59" s="40" t="s">
         <v>56</v>
@@ -2788,16 +2789,16 @@
         <v>58</v>
       </c>
       <c r="C60" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="E60" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="F60" s="44" t="s">
         <v>135</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>136</v>
       </c>
       <c r="G60" s="59" t="s">
         <v>51</v>
@@ -2813,16 +2814,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E61" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="45" t="s">
         <v>137</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>138</v>
       </c>
       <c r="G61" s="60" t="s">
         <v>51</v>
@@ -2838,16 +2839,16 @@
         <v>60</v>
       </c>
       <c r="C62" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E62" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="55" t="s">
         <v>139</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>140</v>
       </c>
       <c r="G62" s="58" t="s">
         <v>56</v>
@@ -2863,16 +2864,16 @@
         <v>61</v>
       </c>
       <c r="C63" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E63" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="55" t="s">
         <v>141</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>142</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>56</v>
@@ -2888,16 +2889,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E64" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>144</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>61</v>
@@ -2913,16 +2914,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E65" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="41" t="s">
         <v>145</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>146</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>61</v>
@@ -2938,16 +2939,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E66" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="41" t="s">
         <v>147</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>148</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>61</v>
@@ -2963,16 +2964,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E67" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>56</v>
@@ -2988,16 +2989,16 @@
         <v>66</v>
       </c>
       <c r="C68" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E68" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="41" t="s">
         <v>150</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>151</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>65</v>
@@ -3013,16 +3014,16 @@
         <v>67</v>
       </c>
       <c r="C69" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D69" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E69" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="41" t="s">
         <v>152</v>
-      </c>
-      <c r="F69" s="41" t="s">
-        <v>153</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>65</v>
@@ -3038,16 +3039,16 @@
         <v>68</v>
       </c>
       <c r="C70" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E70" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>155</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>70</v>
@@ -3063,16 +3064,16 @@
         <v>69</v>
       </c>
       <c r="C71" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="49" t="s">
-        <v>134</v>
-      </c>
       <c r="E71" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="41" t="s">
         <v>156</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>157</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>70</v>
@@ -3088,16 +3089,16 @@
         <v>70</v>
       </c>
       <c r="C72" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D72" s="51" t="s">
-        <v>134</v>
-      </c>
       <c r="E72" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="41" t="s">
         <v>158</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>159</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>74</v>
@@ -3113,16 +3114,16 @@
         <v>71</v>
       </c>
       <c r="C73" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="51" t="s">
-        <v>134</v>
-      </c>
       <c r="E73" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" s="41" t="s">
         <v>160</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>161</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>74</v>
@@ -3138,16 +3139,16 @@
         <v>72</v>
       </c>
       <c r="C74" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D74" s="51" t="s">
-        <v>134</v>
-      </c>
       <c r="E74" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="41" t="s">
         <v>162</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>163</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>74</v>
@@ -3163,16 +3164,16 @@
         <v>73</v>
       </c>
       <c r="C75" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="51" t="s">
-        <v>134</v>
-      </c>
       <c r="E75" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="55" t="s">
         <v>164</v>
-      </c>
-      <c r="F75" s="55" t="s">
-        <v>165</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>56</v>

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29843996-D034-4C9F-B0F2-8678C24CA21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6CDFB-D48B-4F7B-B856-AB453D731BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>MasterVideoDao.java</t>
   </si>
   <si>
-    <t>m_videoテーブルにアクセスするDAO</t>
-  </si>
-  <si>
     <t>MasterGenreDao.java</t>
   </si>
   <si>
@@ -283,15 +280,9 @@
     <t>遠藤</t>
   </si>
   <si>
-    <t>Reviewlist_bfServlet.java</t>
-  </si>
-  <si>
     <t>レビュー一覧ログイン前</t>
   </si>
   <si>
-    <t>Reviewlist_afServlet.java</t>
-  </si>
-  <si>
     <t>レビュー一覧ログイン後</t>
   </si>
   <si>
@@ -370,9 +361,6 @@
     <t>レビュー投稿css</t>
   </si>
   <si>
-    <t>reviewlist.css</t>
-  </si>
-  <si>
     <t>レビュー一覧css</t>
   </si>
   <si>
@@ -442,9 +430,6 @@
     <t>レビュー投稿js</t>
   </si>
   <si>
-    <t>reviewlist.js</t>
-  </si>
-  <si>
     <t>レビュー一覧js</t>
   </si>
   <si>
@@ -533,9 +518,6 @@
   </si>
   <si>
     <t>レビュー投稿jsp</t>
-  </si>
-  <si>
-    <t>review_bf.jsp</t>
   </si>
   <si>
     <t>レビュー一覧ログイン前jsp</t>
@@ -573,6 +555,30 @@
   </si>
   <si>
     <t>ContactServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_videoテーブルにアクセスするDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_bf.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Review_afServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Review_bfServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1355,8 +1361,8 @@
   <dimension ref="B2:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1436,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="27" t="s">
@@ -1456,10 +1462,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="27" t="s">
@@ -1479,10 +1485,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="27" t="s">
@@ -1502,10 +1508,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="27" t="s">
@@ -1525,10 +1531,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="27" t="s">
@@ -1548,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="27" t="s">
@@ -1571,10 +1577,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="27" t="s">
@@ -1594,10 +1600,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27" t="s">
@@ -1614,13 +1620,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="31" t="s">
@@ -1637,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="31" t="s">
@@ -1660,13 +1666,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>35</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="31" t="s">
@@ -1683,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="31" t="s">
@@ -1706,13 +1712,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31" t="s">
@@ -1729,13 +1735,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>40</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>41</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="31" t="s">
@@ -1752,13 +1758,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="31" t="s">
@@ -1775,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="31" t="s">
@@ -1798,13 +1804,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="31" t="s">
@@ -1821,16 +1827,16 @@
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>12</v>
@@ -1846,16 +1852,16 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>12</v>
@@ -1871,16 +1877,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="H23" s="64">
         <v>0.3</v>
@@ -1896,16 +1902,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="64">
         <v>0.05</v>
@@ -1921,16 +1927,16 @@
         <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>12</v>
@@ -1946,16 +1952,16 @@
         <v>8</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="64">
         <v>0.05</v>
@@ -1971,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="64"/>
@@ -1992,16 +1998,16 @@
         <v>8</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>12</v>
@@ -2017,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>12</v>
@@ -2042,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>12</v>
@@ -2067,16 +2073,16 @@
         <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>12</v>
@@ -2092,16 +2098,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>12</v>
@@ -2117,16 +2123,16 @@
         <v>8</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>12</v>
@@ -2142,16 +2148,16 @@
         <v>8</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>12</v>
@@ -2167,16 +2173,16 @@
         <v>8</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="64">
         <v>0.5</v>
@@ -2192,16 +2198,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>12</v>
@@ -2217,16 +2223,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="64">
         <v>0.05</v>
@@ -2239,19 +2245,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="G38" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>12</v>
@@ -2264,19 +2270,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D39" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="F39" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>12</v>
@@ -2289,19 +2295,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="63">
         <v>0.1</v>
@@ -2314,19 +2320,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="63">
         <v>0.1</v>
@@ -2339,19 +2345,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>12</v>
@@ -2364,19 +2370,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43" s="63">
         <v>0.1</v>
@@ -2389,19 +2395,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>12</v>
@@ -2414,19 +2420,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>12</v>
@@ -2439,19 +2445,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>12</v>
@@ -2464,19 +2470,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>12</v>
@@ -2489,19 +2495,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48" s="63">
         <v>0.1</v>
@@ -2514,19 +2520,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H49" s="37" t="s">
         <v>12</v>
@@ -2539,19 +2545,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="F50" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>113</v>
-      </c>
       <c r="G50" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>12</v>
@@ -2564,19 +2570,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="62">
         <v>0</v>
@@ -2589,19 +2595,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="62">
         <v>0</v>
@@ -2614,19 +2620,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" s="37" t="s">
         <v>12</v>
@@ -2639,19 +2645,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H54" s="62">
         <v>0</v>
@@ -2664,19 +2670,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H55" s="37" t="s">
         <v>12</v>
@@ -2689,19 +2695,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H56" s="37" t="s">
         <v>12</v>
@@ -2714,19 +2720,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H57" s="37" t="s">
         <v>12</v>
@@ -2739,19 +2745,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H58" s="37" t="s">
         <v>12</v>
@@ -2764,19 +2770,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59" s="62">
         <v>0</v>
@@ -2789,19 +2795,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G60" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H60" s="57" t="s">
         <v>12</v>
@@ -2814,19 +2820,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>137</v>
-      </c>
       <c r="G61" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H61" s="57" t="s">
         <v>12</v>
@@ -2839,19 +2845,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D62" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="41" t="s">
-        <v>138</v>
-      </c>
       <c r="F62" s="55" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G62" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H62" s="61">
         <v>0.7</v>
@@ -2864,19 +2870,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F63" s="55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H63" s="61">
         <v>0.7</v>
@@ -2889,19 +2895,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G64" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H64" s="46" t="s">
         <v>12</v>
@@ -2914,19 +2920,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H65" s="46" t="s">
         <v>12</v>
@@ -2939,19 +2945,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G66" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H66" s="46" t="s">
         <v>12</v>
@@ -2964,19 +2970,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H67" s="61">
         <v>0.3</v>
@@ -2989,19 +2995,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G68" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>12</v>
@@ -3014,19 +3020,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G69" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" s="46" t="s">
         <v>12</v>
@@ -3039,19 +3045,19 @@
         <v>68</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G70" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>12</v>
@@ -3064,19 +3070,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G71" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H71" s="46" t="s">
         <v>12</v>
@@ -3089,19 +3095,19 @@
         <v>70</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D72" s="51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G72" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H72" s="46" t="s">
         <v>12</v>
@@ -3114,19 +3120,19 @@
         <v>71</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G73" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H73" s="46" t="s">
         <v>12</v>
@@ -3139,19 +3145,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G74" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H74" s="46" t="s">
         <v>12</v>
@@ -3164,19 +3170,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F75" s="55" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G75" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H75" s="61">
         <v>0.8</v>
@@ -3222,12 +3228,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3363,15 +3366,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3395,10 +3402,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6CDFB-D48B-4F7B-B856-AB453D731BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C980F-7789-4AD9-9312-B677E9554742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1361,8 +1361,8 @@
   <dimension ref="B2:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C980F-7789-4AD9-9312-B677E9554742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83E83F1-C585-424C-9FDD-FE5F44406916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="173">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -579,6 +579,18 @@
   </si>
   <si>
     <t>review.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserpageServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋本</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -589,7 +601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +651,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -843,12 +863,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,8 +1067,12 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1358,11 +1385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:I80"/>
+  <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1406,7 +1433,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="23">
-        <f t="shared" ref="B3:B35" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B36" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -1938,8 +1965,8 @@
       <c r="G25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>12</v>
+      <c r="H25" s="64">
+        <v>0.03</v>
       </c>
       <c r="I25" s="11"/>
     </row>
@@ -1955,16 +1982,16 @@
         <v>47</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="H26" s="64">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I26" s="11"/>
     </row>
@@ -1980,13 +2007,17 @@
         <v>47</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="64"/>
+        <v>61</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="64">
+        <v>0.05</v>
+      </c>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -2001,17 +2032,13 @@
         <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="64"/>
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -2026,10 +2053,10 @@
         <v>47</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>64</v>
@@ -2051,13 +2078,13 @@
         <v>47</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>12</v>
@@ -2076,10 +2103,10 @@
         <v>47</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>69</v>
@@ -2101,13 +2128,13 @@
         <v>47</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>12</v>
@@ -2126,10 +2153,10 @@
         <v>47</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>73</v>
@@ -2151,10 +2178,10 @@
         <v>47</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>73</v>
@@ -2176,22 +2203,22 @@
         <v>47</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="64">
-        <v>0.5</v>
+        <v>73</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="6">
-        <f t="shared" ref="B36:B67" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2201,22 +2228,22 @@
         <v>47</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="H36" s="64">
+        <v>0.5</v>
       </c>
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B37:B68" si="1">ROW()-2</f>
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -2226,43 +2253,43 @@
         <v>47</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H37" s="64">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="14">
+      <c r="B38" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="19"/>
+      <c r="C38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="14">
@@ -2275,14 +2302,14 @@
       <c r="D39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>86</v>
+      <c r="E39" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>12</v>
@@ -2301,16 +2328,16 @@
         <v>82</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="63">
-        <v>0.1</v>
+        <v>50</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I40" s="19"/>
     </row>
@@ -2319,17 +2346,17 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>55</v>
@@ -2351,16 +2378,16 @@
         <v>82</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="H42" s="63">
+        <v>0.1</v>
       </c>
       <c r="I42" s="19"/>
     </row>
@@ -2376,16 +2403,16 @@
         <v>82</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H43" s="63">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I43" s="19"/>
     </row>
@@ -2400,17 +2427,17 @@
       <c r="D44" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="21" t="s">
-        <v>95</v>
+      <c r="E44" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="H44" s="63">
+        <v>0.1</v>
       </c>
       <c r="I44" s="19"/>
     </row>
@@ -2422,17 +2449,17 @@
       <c r="C45" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>97</v>
+      <c r="E45" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>12</v>
@@ -2451,13 +2478,13 @@
         <v>82</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>12</v>
@@ -2475,11 +2502,11 @@
       <c r="D47" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>169</v>
+      <c r="E47" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>73</v>
@@ -2500,44 +2527,44 @@
       <c r="D48" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>102</v>
+      <c r="E48" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" s="63">
-        <v>0.1</v>
+        <v>73</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="33">
+      <c r="B49" s="14">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="38"/>
+      <c r="C49" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="33">
@@ -2551,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>12</v>
@@ -2576,16 +2603,16 @@
         <v>105</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="62">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="I51" s="38"/>
     </row>
@@ -2594,17 +2621,17 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="35" t="s">
         <v>105</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>55</v>
@@ -2626,16 +2653,16 @@
         <v>105</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="H53" s="62">
+        <v>0</v>
       </c>
       <c r="I53" s="38"/>
     </row>
@@ -2651,16 +2678,16 @@
         <v>105</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H54" s="62">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I54" s="38"/>
     </row>
@@ -2675,17 +2702,17 @@
       <c r="D55" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="54" t="s">
-        <v>118</v>
+      <c r="E55" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="H55" s="62">
+        <v>0</v>
       </c>
       <c r="I55" s="38"/>
     </row>
@@ -2700,14 +2727,14 @@
       <c r="D56" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="33" t="s">
-        <v>120</v>
+      <c r="E56" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H56" s="37" t="s">
         <v>12</v>
@@ -2726,13 +2753,13 @@
         <v>105</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H57" s="37" t="s">
         <v>12</v>
@@ -2750,11 +2777,11 @@
       <c r="D58" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="54" t="s">
-        <v>168</v>
+      <c r="E58" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>73</v>
@@ -2775,63 +2802,63 @@
       <c r="D59" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E59" s="33" t="s">
-        <v>125</v>
+      <c r="E59" s="54" t="s">
+        <v>168</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="62">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="I59" s="38"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="41">
+      <c r="B60" s="33">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C60" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="47"/>
+      <c r="C60" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="62">
+        <v>0</v>
+      </c>
+      <c r="I60" s="38"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="41">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="43" t="s">
         <v>128</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="59" t="s">
         <v>50</v>
       </c>
       <c r="H61" s="57" t="s">
@@ -2851,16 +2878,16 @@
         <v>128</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" s="61">
-        <v>0.7</v>
+        <v>131</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>12</v>
       </c>
       <c r="I62" s="47"/>
     </row>
@@ -2876,12 +2903,12 @@
         <v>128</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F63" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="58" t="s">
         <v>55</v>
       </c>
       <c r="H63" s="61">
@@ -2901,16 +2928,16 @@
         <v>128</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>136</v>
       </c>
       <c r="G64" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="46" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="H64" s="61">
+        <v>0.7</v>
       </c>
       <c r="I64" s="47"/>
     </row>
@@ -2926,16 +2953,16 @@
         <v>128</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="46" t="s">
-        <v>12</v>
+      <c r="H65" s="61">
+        <v>0.6</v>
       </c>
       <c r="I65" s="47"/>
     </row>
@@ -2950,17 +2977,17 @@
       <c r="D66" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="50" t="s">
-        <v>141</v>
+      <c r="E66" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="46" t="s">
-        <v>12</v>
+      <c r="H66" s="65">
+        <v>0.6</v>
       </c>
       <c r="I66" s="47"/>
     </row>
@@ -2976,22 +3003,22 @@
         <v>128</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" s="61">
+        <v>60</v>
+      </c>
+      <c r="H67" s="65">
         <v>0.3</v>
       </c>
       <c r="I67" s="47"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B68" s="41">
-        <f t="shared" ref="B68:B75" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68" s="48" t="s">
@@ -3000,23 +3027,23 @@
       <c r="D68" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="41" t="s">
-        <v>144</v>
+      <c r="E68" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G68" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" s="46" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="H68" s="61">
+        <v>0.3</v>
       </c>
       <c r="I68" s="47"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B69:B76" si="2">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="48" t="s">
@@ -3026,10 +3053,10 @@
         <v>128</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>64</v>
@@ -3051,13 +3078,13 @@
         <v>128</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G70" s="45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>12</v>
@@ -3069,17 +3096,17 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="49" t="s">
         <v>128</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>69</v>
@@ -3097,17 +3124,17 @@
       <c r="C72" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="49" t="s">
         <v>128</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G72" s="45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H72" s="46" t="s">
         <v>12</v>
@@ -3126,10 +3153,10 @@
         <v>128</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>73</v>
@@ -3151,10 +3178,10 @@
         <v>128</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>73</v>
@@ -3176,30 +3203,51 @@
         <v>128</v>
       </c>
       <c r="E75" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="47"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B76" s="41">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F76" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G75" s="45" t="s">
+      <c r="G76" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="61">
+      <c r="H76" s="61">
         <v>0.8</v>
       </c>
-      <c r="I75" s="47"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B76" s="2"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="I76" s="47"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C78" s="3"/>
@@ -3212,6 +3260,10 @@
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -3219,8 +3271,8 @@
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G157">
-    <sortCondition ref="D11:D157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G158">
+    <sortCondition ref="D11:D158"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3234,6 +3286,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3365,15 +3426,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
@@ -3384,6 +3436,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3399,12 +3459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\B-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C980F-7789-4AD9-9312-B677E9554742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4245BBE-312C-4FD7-A8C0-E6BFAC55DFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="170">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -589,7 +589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +639,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -843,12 +851,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,8 +1055,18 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1361,8 +1382,8 @@
   <dimension ref="B2:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2434,8 +2455,8 @@
       <c r="G45" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>12</v>
+      <c r="H45" s="67">
+        <v>1</v>
       </c>
       <c r="I45" s="19"/>
     </row>
@@ -2709,8 +2730,8 @@
       <c r="G56" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="37" t="s">
-        <v>12</v>
+      <c r="H56" s="66">
+        <v>1</v>
       </c>
       <c r="I56" s="38"/>
     </row>
@@ -3059,8 +3080,8 @@
       <c r="G70" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="46" t="s">
-        <v>12</v>
+      <c r="H70" s="65">
+        <v>1</v>
       </c>
       <c r="I70" s="47"/>
     </row>
@@ -3084,8 +3105,8 @@
       <c r="G71" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H71" s="46" t="s">
-        <v>12</v>
+      <c r="H71" s="65">
+        <v>1</v>
       </c>
       <c r="I71" s="47"/>
     </row>
@@ -3234,6 +3255,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3365,15 +3395,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
@@ -3384,6 +3405,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3399,12 +3428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83E83F1-C585-424C-9FDD-FE5F44406916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843EC77-F1A2-4438-8DEA-AD70EF7CCA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="174">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -591,6 +591,10 @@
   </si>
   <si>
     <t>橋本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠藤</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1388,8 +1392,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1471,7 +1475,9 @@
       <c r="F4" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="H4" s="27" t="s">
         <v>12</v>
       </c>
@@ -1678,7 +1684,9 @@
       <c r="F13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>173</v>
+      </c>
       <c r="H13" s="31" t="s">
         <v>12</v>
       </c>
@@ -2037,7 +2045,9 @@
       <c r="F28" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="H28" s="64"/>
       <c r="I28" s="11"/>
     </row>
@@ -3280,21 +3290,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3426,24 +3421,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3459,4 +3452,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843EC77-F1A2-4438-8DEA-AD70EF7CCA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087BDCC-9430-40DE-B5F1-6B7D50AD23CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="174">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1047,9 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1071,7 +1068,10 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,8 +1392,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1569,7 +1569,9 @@
       <c r="F8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="H8" s="27" t="s">
         <v>12</v>
       </c>
@@ -1778,7 +1780,9 @@
       <c r="F17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>173</v>
+      </c>
       <c r="H17" s="31" t="s">
         <v>12</v>
       </c>
@@ -1923,7 +1927,7 @@
       <c r="G23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="63">
         <v>0.3</v>
       </c>
       <c r="I23" s="11"/>
@@ -1948,7 +1952,7 @@
       <c r="G24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="63">
         <v>0.05</v>
       </c>
       <c r="I24" s="11"/>
@@ -1973,7 +1977,7 @@
       <c r="G25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="63">
         <v>0.03</v>
       </c>
       <c r="I25" s="11"/>
@@ -1998,7 +2002,7 @@
       <c r="G26" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="63">
         <v>0.03</v>
       </c>
       <c r="I26" s="11"/>
@@ -2023,7 +2027,7 @@
       <c r="G27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="63">
         <v>0.05</v>
       </c>
       <c r="I27" s="11"/>
@@ -2048,7 +2052,7 @@
       <c r="G28" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H28" s="64"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
@@ -2246,7 +2250,7 @@
       <c r="G36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="64">
+      <c r="H36" s="63">
         <v>0.5</v>
       </c>
       <c r="I36" s="11"/>
@@ -2271,7 +2275,7 @@
       <c r="G37" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="63">
         <v>0.03</v>
       </c>
       <c r="I37" s="11"/>
@@ -2296,7 +2300,7 @@
       <c r="G38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="64">
+      <c r="H38" s="63">
         <v>0.05</v>
       </c>
       <c r="I38" s="11"/>
@@ -2371,7 +2375,7 @@
       <c r="G41" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="63">
+      <c r="H41" s="62">
         <v>0.1</v>
       </c>
       <c r="I41" s="19"/>
@@ -2396,7 +2400,7 @@
       <c r="G42" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="63">
+      <c r="H42" s="62">
         <v>0.1</v>
       </c>
       <c r="I42" s="19"/>
@@ -2421,7 +2425,7 @@
       <c r="G43" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="63">
+      <c r="H43" s="62">
         <v>0.3</v>
       </c>
       <c r="I43" s="19"/>
@@ -2446,7 +2450,7 @@
       <c r="G44" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="63">
+      <c r="H44" s="62">
         <v>0.1</v>
       </c>
       <c r="I44" s="19"/>
@@ -2496,8 +2500,8 @@
       <c r="G46" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>12</v>
+      <c r="H46" s="62">
+        <v>1</v>
       </c>
       <c r="I46" s="19"/>
     </row>
@@ -2571,7 +2575,7 @@
       <c r="G49" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="63">
+      <c r="H49" s="62">
         <v>0.1</v>
       </c>
       <c r="I49" s="19"/>
@@ -2646,7 +2650,7 @@
       <c r="G52" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H52" s="62">
+      <c r="H52" s="61">
         <v>0</v>
       </c>
       <c r="I52" s="38"/>
@@ -2671,7 +2675,7 @@
       <c r="G53" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H53" s="62">
+      <c r="H53" s="61">
         <v>0</v>
       </c>
       <c r="I53" s="38"/>
@@ -2696,7 +2700,7 @@
       <c r="G54" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="62">
+      <c r="H54" s="61">
         <v>0.3</v>
       </c>
       <c r="I54" s="38"/>
@@ -2721,7 +2725,7 @@
       <c r="G55" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="62">
+      <c r="H55" s="61">
         <v>0</v>
       </c>
       <c r="I55" s="38"/>
@@ -2846,7 +2850,7 @@
       <c r="G60" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H60" s="62">
+      <c r="H60" s="61">
         <v>0</v>
       </c>
       <c r="I60" s="38"/>
@@ -2868,11 +2872,11 @@
       <c r="F61" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="59" t="s">
+      <c r="G61" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="57" t="s">
-        <v>12</v>
+      <c r="H61" s="64">
+        <v>1</v>
       </c>
       <c r="I61" s="47"/>
     </row>
@@ -2893,11 +2897,11 @@
       <c r="F62" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G62" s="60" t="s">
+      <c r="G62" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="H62" s="57" t="s">
-        <v>12</v>
+      <c r="H62" s="64">
+        <v>1</v>
       </c>
       <c r="I62" s="47"/>
     </row>
@@ -2918,10 +2922,10 @@
       <c r="F63" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="58" t="s">
+      <c r="G63" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="61">
+      <c r="H63" s="60">
         <v>0.7</v>
       </c>
       <c r="I63" s="47"/>
@@ -2946,7 +2950,7 @@
       <c r="G64" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="61">
+      <c r="H64" s="60">
         <v>0.7</v>
       </c>
       <c r="I64" s="47"/>
@@ -2971,7 +2975,7 @@
       <c r="G65" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="61">
+      <c r="H65" s="60">
         <v>0.6</v>
       </c>
       <c r="I65" s="47"/>
@@ -3046,7 +3050,7 @@
       <c r="G68" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H68" s="61">
+      <c r="H68" s="60">
         <v>0.3</v>
       </c>
       <c r="I68" s="47"/>
@@ -3071,7 +3075,7 @@
       <c r="G69" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="46" t="s">
+      <c r="H69" s="60" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="47"/>
@@ -3096,7 +3100,7 @@
       <c r="G70" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="60" t="s">
         <v>12</v>
       </c>
       <c r="I70" s="47"/>
@@ -3121,8 +3125,8 @@
       <c r="G71" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H71" s="46" t="s">
-        <v>12</v>
+      <c r="H71" s="60">
+        <v>1</v>
       </c>
       <c r="I71" s="47"/>
     </row>
@@ -3246,7 +3250,7 @@
       <c r="G76" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H76" s="61">
+      <c r="H76" s="60">
         <v>0.8</v>
       </c>
       <c r="I76" s="47"/>

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843EC77-F1A2-4438-8DEA-AD70EF7CCA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE998323-9356-4D9D-B280-A67B66A7FCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1392,7 +1392,7 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -3290,6 +3290,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3421,22 +3436,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3452,21 +3469,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE998323-9356-4D9D-B280-A67B66A7FCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B971CCF1-410D-4FCC-9610-9626FDA2B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="175">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -127,9 +127,6 @@
     <t>ReplyDao.java</t>
   </si>
   <si>
-    <t>t_replyテーブルにアクセスするDAO</t>
-  </si>
-  <si>
     <t>ReactionDao.java</t>
   </si>
   <si>
@@ -595,6 +592,14 @@
   </si>
   <si>
     <t>遠藤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊地</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_replyテーブルにアクセスするDAO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1392,8 +1397,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1473,10 +1478,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>12</v>
@@ -1569,7 +1574,9 @@
       <c r="F8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>173</v>
+      </c>
       <c r="H8" s="27" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="27" t="s">
@@ -1610,10 +1617,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>25</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="27" t="s">
@@ -1633,10 +1640,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>27</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="27" t="s">
@@ -1653,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="F12" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="31" t="s">
@@ -1676,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="G13" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>12</v>
@@ -1701,13 +1708,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="31" t="s">
@@ -1724,13 +1731,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>36</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="31" t="s">
@@ -1747,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31" t="s">
@@ -1770,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="31" t="s">
@@ -1793,13 +1800,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="31" t="s">
@@ -1816,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="31" t="s">
@@ -1839,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="31" t="s">
@@ -1862,16 +1869,16 @@
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>12</v>
@@ -1887,16 +1894,16 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>12</v>
@@ -1912,16 +1919,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="H23" s="64">
         <v>0.3</v>
@@ -1937,16 +1944,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="64">
         <v>0.05</v>
@@ -1962,16 +1969,16 @@
         <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="64">
         <v>0.03</v>
@@ -1987,16 +1994,16 @@
         <v>8</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="64">
         <v>0.03</v>
@@ -2012,16 +2019,16 @@
         <v>8</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="64">
         <v>0.05</v>
@@ -2037,16 +2044,16 @@
         <v>8</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H28" s="64"/>
       <c r="I28" s="11"/>
@@ -2060,16 +2067,16 @@
         <v>8</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>12</v>
@@ -2085,16 +2092,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>12</v>
@@ -2110,16 +2117,16 @@
         <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>12</v>
@@ -2135,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="G32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>12</v>
@@ -2160,16 +2167,16 @@
         <v>8</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>12</v>
@@ -2185,16 +2192,16 @@
         <v>8</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>12</v>
@@ -2210,16 +2217,16 @@
         <v>8</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>12</v>
@@ -2235,16 +2242,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="G36" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="64">
         <v>0.5</v>
@@ -2260,16 +2267,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="G37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" s="64">
         <v>0.03</v>
@@ -2285,16 +2292,16 @@
         <v>8</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="64">
         <v>0.05</v>
@@ -2307,19 +2314,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="F39" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="G39" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>12</v>
@@ -2332,19 +2339,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="E40" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="G40" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>12</v>
@@ -2357,19 +2364,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="E41" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="G41" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H41" s="63">
         <v>0.1</v>
@@ -2382,19 +2389,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="E42" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G42" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="63">
         <v>0.1</v>
@@ -2407,19 +2414,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="E43" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>92</v>
-      </c>
       <c r="G43" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="63">
         <v>0.3</v>
@@ -2432,19 +2439,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="E44" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="G44" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="63">
         <v>0.1</v>
@@ -2457,19 +2464,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="E45" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="G45" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>12</v>
@@ -2482,19 +2489,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="E46" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="G46" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>12</v>
@@ -2507,19 +2514,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="E47" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="G47" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>12</v>
@@ -2532,19 +2539,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="E48" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>12</v>
@@ -2557,19 +2564,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="E49" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="G49" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H49" s="63">
         <v>0.1</v>
@@ -2582,19 +2589,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="E50" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="F50" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="52" t="s">
-        <v>107</v>
-      </c>
       <c r="G50" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H50" s="37" t="s">
         <v>12</v>
@@ -2607,19 +2614,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>105</v>
-      </c>
       <c r="E51" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="33" t="s">
-        <v>109</v>
-      </c>
       <c r="G51" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" s="37" t="s">
         <v>12</v>
@@ -2632,19 +2639,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>105</v>
-      </c>
       <c r="E52" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="G52" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H52" s="62">
         <v>0</v>
@@ -2657,19 +2664,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E53" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="33" t="s">
-        <v>113</v>
-      </c>
       <c r="G53" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H53" s="62">
         <v>0</v>
@@ -2682,19 +2689,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E54" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="33" t="s">
-        <v>115</v>
-      </c>
       <c r="G54" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="62">
         <v>0.3</v>
@@ -2707,19 +2714,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E55" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="33" t="s">
-        <v>117</v>
-      </c>
       <c r="G55" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" s="62">
         <v>0</v>
@@ -2732,19 +2739,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E56" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="33" t="s">
-        <v>119</v>
-      </c>
       <c r="G56" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H56" s="37" t="s">
         <v>12</v>
@@ -2757,19 +2764,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E57" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="33" t="s">
-        <v>121</v>
-      </c>
       <c r="G57" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H57" s="37" t="s">
         <v>12</v>
@@ -2782,19 +2789,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E58" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="33" t="s">
-        <v>123</v>
-      </c>
       <c r="G58" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H58" s="37" t="s">
         <v>12</v>
@@ -2807,19 +2814,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E59" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H59" s="37" t="s">
         <v>12</v>
@@ -2832,19 +2839,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="53" t="s">
-        <v>105</v>
-      </c>
       <c r="E60" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F60" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="G60" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H60" s="62">
         <v>0</v>
@@ -2857,19 +2864,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="E61" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="F61" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="44" t="s">
-        <v>130</v>
-      </c>
       <c r="G61" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H61" s="57" t="s">
         <v>12</v>
@@ -2882,19 +2889,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E62" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="45" t="s">
-        <v>132</v>
-      </c>
       <c r="G62" s="60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H62" s="57" t="s">
         <v>12</v>
@@ -2907,19 +2914,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E63" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="55" t="s">
-        <v>134</v>
-      </c>
       <c r="G63" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H63" s="61">
         <v>0.7</v>
@@ -2932,19 +2939,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E64" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F64" s="55" t="s">
-        <v>136</v>
-      </c>
       <c r="G64" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H64" s="61">
         <v>0.7</v>
@@ -2957,19 +2964,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E65" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F65" s="41" t="s">
-        <v>138</v>
-      </c>
       <c r="G65" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H65" s="61">
         <v>0.6</v>
@@ -2982,19 +2989,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E66" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="41" t="s">
-        <v>140</v>
-      </c>
       <c r="G66" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="65">
         <v>0.6</v>
@@ -3007,19 +3014,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E67" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="F67" s="41" t="s">
-        <v>142</v>
-      </c>
       <c r="G67" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H67" s="65">
         <v>0.3</v>
@@ -3032,19 +3039,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E68" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G68" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H68" s="61">
         <v>0.3</v>
@@ -3057,19 +3064,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D69" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E69" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F69" s="41" t="s">
-        <v>145</v>
-      </c>
       <c r="G69" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H69" s="46" t="s">
         <v>12</v>
@@ -3082,19 +3089,19 @@
         <v>68</v>
       </c>
       <c r="C70" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E70" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="41" t="s">
-        <v>147</v>
-      </c>
       <c r="G70" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>12</v>
@@ -3107,19 +3114,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E71" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="41" t="s">
-        <v>149</v>
-      </c>
       <c r="G71" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H71" s="46" t="s">
         <v>12</v>
@@ -3132,19 +3139,19 @@
         <v>70</v>
       </c>
       <c r="C72" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="49" t="s">
-        <v>128</v>
-      </c>
       <c r="E72" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="41" t="s">
-        <v>151</v>
-      </c>
       <c r="G72" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H72" s="46" t="s">
         <v>12</v>
@@ -3157,19 +3164,19 @@
         <v>71</v>
       </c>
       <c r="C73" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="E73" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F73" s="41" t="s">
-        <v>153</v>
-      </c>
       <c r="G73" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H73" s="46" t="s">
         <v>12</v>
@@ -3182,19 +3189,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D74" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="E74" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G74" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H74" s="46" t="s">
         <v>12</v>
@@ -3207,19 +3214,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="E75" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F75" s="41" t="s">
-        <v>156</v>
-      </c>
       <c r="G75" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H75" s="46" t="s">
         <v>12</v>
@@ -3232,19 +3239,19 @@
         <v>74</v>
       </c>
       <c r="C76" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="51" t="s">
-        <v>128</v>
-      </c>
       <c r="E76" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F76" s="55" t="s">
-        <v>158</v>
-      </c>
       <c r="G76" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H76" s="61">
         <v>0.8</v>
@@ -3290,21 +3297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3436,24 +3428,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3469,4 +3459,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B971CCF1-410D-4FCC-9610-9626FDA2B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA96C1-63DE-4B52-AFD0-F48F2E2EAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="175">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1398,7 +1398,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1528,7 +1528,9 @@
       <c r="F6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="26" t="s">
+        <v>172</v>
+      </c>
       <c r="H6" s="27" t="s">
         <v>12</v>
       </c>

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA96C1-63DE-4B52-AFD0-F48F2E2EAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB4C13-2F7A-4224-8FC0-02D3CB875CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1397,8 +1397,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB4C13-2F7A-4224-8FC0-02D3CB875CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1BEC82-311C-484E-92F1-C0C7E18F13A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1397,8 +1397,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1983,7 +1983,7 @@
         <v>59</v>
       </c>
       <c r="H25" s="64">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I25" s="11"/>
     </row>
@@ -2431,7 +2431,7 @@
         <v>59</v>
       </c>
       <c r="H43" s="63">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I43" s="19"/>
     </row>
@@ -2706,7 +2706,7 @@
         <v>59</v>
       </c>
       <c r="H54" s="62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I54" s="38"/>
     </row>
@@ -2981,7 +2981,7 @@
         <v>59</v>
       </c>
       <c r="H65" s="61">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I65" s="47"/>
     </row>
@@ -3006,7 +3006,7 @@
         <v>59</v>
       </c>
       <c r="H66" s="65">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I66" s="47"/>
     </row>
@@ -3031,7 +3031,7 @@
         <v>59</v>
       </c>
       <c r="H67" s="65">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I67" s="47"/>
     </row>
@@ -3299,6 +3299,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3430,22 +3445,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3461,21 +3478,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1BEC82-311C-484E-92F1-C0C7E18F13A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4022614F-ADEB-4500-9745-E776F9C2AFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="176">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -536,17 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SearchServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PostServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,6 +589,18 @@
   </si>
   <si>
     <t>t_replyテーブルにアクセスするDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダーjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -726,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -784,15 +785,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -880,23 +872,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -908,15 +894,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -932,15 +915,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,27 +939,24 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -989,21 +966,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1016,15 +990,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1049,34 +1020,46 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,11 +1377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:I81"/>
+  <dimension ref="B2:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1410,7 +1393,7 @@
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="62" customWidth="1"/>
     <col min="9" max="9" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1430,1859 +1413,1859 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="23">
-        <f t="shared" ref="B3:B36" si="0">ROW()-2</f>
+      <c r="B3" s="19">
+        <f t="shared" ref="B3:B35" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="27"/>
+      <c r="G3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="23">
+      <c r="B4" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="27"/>
+      <c r="F4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="23">
+      <c r="B5" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="23">
+      <c r="B6" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="27"/>
+      <c r="G6" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="23">
+      <c r="B7" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="27"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="23">
+      <c r="B8" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="27"/>
+      <c r="G8" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="23">
+      <c r="B9" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="23">
+      <c r="B10" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="23">
+      <c r="B11" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="27"/>
+      <c r="G11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="28">
+      <c r="B12" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="32"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="59">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="28">
+      <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="C13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="32"/>
+      <c r="G13" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1</v>
+      </c>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="28">
+      <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="32"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="59">
+        <v>1</v>
+      </c>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="28">
+      <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="32"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="28">
+      <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="32"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="59">
+        <v>1</v>
+      </c>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="28">
+      <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="32"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="59">
+        <v>1</v>
+      </c>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="28">
+      <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="32"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="59">
+        <v>1</v>
+      </c>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="28">
+      <c r="B19" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="32"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="59">
+        <v>1</v>
+      </c>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="28">
+      <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="32"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="59">
+        <v>1</v>
+      </c>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="11"/>
+      <c r="H21" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="11"/>
+      <c r="H22" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="64">
-        <v>0.3</v>
-      </c>
-      <c r="I23" s="11"/>
+      <c r="H23" s="56">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="56">
         <v>0.05</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="56">
         <v>0.06</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="64">
+      <c r="H26" s="56">
         <v>0.03</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="64">
-        <v>0.05</v>
-      </c>
-      <c r="I27" s="11"/>
+      <c r="H27" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="11"/>
+      <c r="E28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="E29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="11"/>
+      <c r="H29" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="11"/>
+      <c r="E30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="11"/>
+      <c r="H31" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="11"/>
+      <c r="E32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="E33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="11"/>
+      <c r="H33" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="E34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="11"/>
+      <c r="H34" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="11"/>
+      <c r="E35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="6">
-        <f t="shared" si="0"/>
+      <c r="B36" s="4">
+        <f t="shared" ref="B36:B67" si="1">ROW()-2</f>
         <v>34</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="E36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="56">
+        <v>0.03</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="4">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H36" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="6">
-        <f t="shared" ref="B37:B68" si="1">ROW()-2</f>
-        <v>35</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="64">
-        <v>0.03</v>
-      </c>
-      <c r="I37" s="11"/>
+      <c r="H37" s="56">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="6">
+      <c r="B38" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="64">
-        <v>0.05</v>
-      </c>
-      <c r="I38" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="55">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="14">
+      <c r="B39" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="19"/>
+      <c r="E39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="19"/>
+      <c r="E40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="17" t="s">
+      <c r="E41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="I41" s="19"/>
+      <c r="H41" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="I42" s="19"/>
+      <c r="E42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" s="63">
-        <v>0.6</v>
-      </c>
-      <c r="I43" s="19"/>
+      <c r="E43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="I44" s="19"/>
+      <c r="E44" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="55">
+        <v>1</v>
+      </c>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="19"/>
+      <c r="E45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="55">
+        <v>0.94</v>
+      </c>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="14">
+      <c r="B46" s="11">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="19"/>
+      <c r="E46" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="E47" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="19"/>
+      <c r="H47" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="14">
+      <c r="B48" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="19"/>
+      <c r="E48" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="14">
+      <c r="B49" s="28">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="I49" s="19"/>
+      <c r="C49" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="32"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="33">
+      <c r="B50" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="38"/>
+      <c r="E50" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="33">
+      <c r="B51" s="28">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="38"/>
+      <c r="E51" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" s="54">
+        <v>0</v>
+      </c>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="33">
+      <c r="B52" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="36" t="s">
+      <c r="E52" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="62">
+      <c r="H52" s="54">
         <v>0</v>
       </c>
-      <c r="I52" s="38"/>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="33">
+      <c r="B53" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="62">
-        <v>0</v>
-      </c>
-      <c r="I53" s="38"/>
+      <c r="E53" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="54">
+        <v>0.4</v>
+      </c>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="33">
+      <c r="B54" s="28">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" s="62">
-        <v>0.4</v>
-      </c>
-      <c r="I54" s="38"/>
+      <c r="E54" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="33">
+      <c r="B55" s="28">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="62">
-        <v>0</v>
-      </c>
-      <c r="I55" s="38"/>
+      <c r="E55" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="33">
+      <c r="B56" s="28">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="38"/>
+      <c r="E56" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="54">
+        <v>1</v>
+      </c>
+      <c r="I56" s="32"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="33">
+      <c r="B57" s="28">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="38"/>
+      <c r="E57" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="54">
+        <v>1</v>
+      </c>
+      <c r="I57" s="32"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="33">
+      <c r="B58" s="28">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E58" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" s="36" t="s">
+      <c r="E58" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H58" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="38"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="32"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="33">
+      <c r="B59" s="28">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="38"/>
+      <c r="E59" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="54">
+        <v>1</v>
+      </c>
+      <c r="I59" s="32"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="33">
+      <c r="B60" s="35">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H60" s="62">
-        <v>0</v>
-      </c>
-      <c r="I60" s="38"/>
+      <c r="C60" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="I60" s="40"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="41">
+      <c r="B61" s="35">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G61" s="59" t="s">
+      <c r="E61" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H61" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="47"/>
+      <c r="H61" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="I61" s="40"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="41">
+      <c r="B62" s="35">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E62" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G62" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="47"/>
+      <c r="E62" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="I62" s="40"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="41">
+      <c r="B63" s="35">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="58" t="s">
+      <c r="E63" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H63" s="61">
+      <c r="H63" s="53">
         <v>0.7</v>
       </c>
-      <c r="I63" s="47"/>
+      <c r="I63" s="40"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="41">
+      <c r="B64" s="35">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="C64" s="48" t="s">
+      <c r="C64" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="49" t="s">
+      <c r="D64" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="H64" s="61">
+      <c r="E64" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" s="53">
         <v>0.7</v>
       </c>
-      <c r="I64" s="47"/>
+      <c r="I64" s="40"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="41">
+      <c r="B65" s="35">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G65" s="45" t="s">
+      <c r="E65" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G65" s="39" t="s">
         <v>59</v>
       </c>
       <c r="H65" s="61">
         <v>0.7</v>
       </c>
-      <c r="I65" s="47"/>
+      <c r="I65" s="40"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="41">
+      <c r="B66" s="35">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="49" t="s">
+      <c r="D66" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="45" t="s">
+      <c r="E66" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="65">
-        <v>0.7</v>
-      </c>
-      <c r="I66" s="47"/>
+      <c r="H66" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="40"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B67" s="41">
+      <c r="B67" s="35">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G67" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="H67" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="I67" s="47"/>
+      <c r="E67" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="I67" s="40"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="41">
-        <f t="shared" si="1"/>
+      <c r="B68" s="35">
+        <f t="shared" ref="B68:B76" si="2">ROW()-2</f>
         <v>66</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="49" t="s">
+      <c r="D68" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E68" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G68" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="H68" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="I68" s="47"/>
+      <c r="E68" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="I68" s="40"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="41">
-        <f t="shared" ref="B69:B76" si="2">ROW()-2</f>
+      <c r="B69" s="35">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="E69" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="47"/>
+      <c r="H69" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="41">
+      <c r="B70" s="35">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G70" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H70" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="47"/>
+      <c r="E70" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="53">
+        <v>1</v>
+      </c>
+      <c r="I70" s="40"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="41">
+      <c r="B71" s="35">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="E71" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H71" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="47"/>
+      <c r="H71" s="53">
+        <v>1</v>
+      </c>
+      <c r="I71" s="40"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B72" s="41">
+      <c r="B72" s="35">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D72" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="47"/>
+      <c r="E72" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="I72" s="40"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B73" s="41">
+      <c r="B73" s="35">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" s="45" t="s">
+      <c r="E73" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G73" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="H73" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="47"/>
+      <c r="H73" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="I73" s="40"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="41">
+      <c r="B74" s="35">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="G74" s="45" t="s">
+      <c r="E74" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="H74" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="47"/>
+      <c r="H74" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="I74" s="40"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="41">
+      <c r="B75" s="35">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="G75" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H75" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="47"/>
+      <c r="E75" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="I75" s="40"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B76" s="41">
+      <c r="B76" s="35">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F76" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G76" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="H76" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="I76" s="47"/>
+      <c r="E76" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H76" s="53">
+        <v>0.95</v>
+      </c>
+      <c r="I76" s="40"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B77" s="2"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="H77" s="62">
+        <f>AVERAGE(H3:H76)</f>
+        <v>0.62701492537313419</v>
+      </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -3290,8 +3273,8 @@
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G158">
-    <sortCondition ref="D11:D158"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G157">
+    <sortCondition ref="D11:D157"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3299,21 +3282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3445,24 +3413,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3478,4 +3444,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4022614F-ADEB-4500-9745-E776F9C2AFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05503E-7915-453B-A598-41075D17684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="177">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -601,6 +601,13 @@
   </si>
   <si>
     <t>header.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高山、遠藤</t>
+    <rPh sb="0" eb="2">
+      <t>タカヤマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1381,7 +1388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3240,7 +3247,7 @@
         <v>174</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H76" s="53">
         <v>0.95</v>
@@ -3282,6 +3289,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3413,22 +3435,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3444,21 +3468,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05503E-7915-453B-A598-41075D17684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99532920-BA9F-4ECC-BFEA-A82AEE14AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="182">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -121,9 +121,6 @@
     <t>ReviewDao.java</t>
   </si>
   <si>
-    <t>t_reviewテーブルにアクセスするDAO</t>
-  </si>
-  <si>
     <t>ReplyDao.java</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>Review.java</t>
-  </si>
-  <si>
-    <t>t_reviewテーブル関連のデータ操作モデル</t>
   </si>
   <si>
     <t>Reply.java</t>
@@ -608,6 +602,37 @@
     <rPh sb="0" eb="2">
       <t>タカヤマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RankingDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_reviewテーブルにアクセスするDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_reviewテーブルにアクセスするDAO(ランキング特化)</t>
+    <rPh sb="28" eb="30">
+      <t>トッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ranking.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_reviewテーブル関連のデータ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_reviewテーブル関連のデータ操作モデル(ランキング特化)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1384,11 +1409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:I80"/>
+  <dimension ref="B2:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1432,7 +1457,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="19">
-        <f t="shared" ref="B3:B35" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B37" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -1448,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="58">
         <v>0.9</v>
@@ -1470,10 +1495,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H4" s="58">
         <v>0.6</v>
@@ -1521,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="58">
         <v>0.2</v>
@@ -1566,10 +1591,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H8" s="58">
         <v>0.1</v>
@@ -1588,10 +1613,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="58" t="s">
@@ -1611,10 +1636,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>24</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="58" t="s">
@@ -1634,41 +1659,41 @@
         <v>9</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H11" s="58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I11" s="23"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="24">
+      <c r="B12" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="59">
-        <v>1</v>
-      </c>
-      <c r="I12" s="27"/>
+      <c r="C12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="24">
@@ -1679,17 +1704,15 @@
         <v>8</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>170</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G13" s="26"/>
       <c r="H13" s="59">
         <v>1</v>
       </c>
@@ -1704,15 +1727,17 @@
         <v>8</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="H14" s="59">
         <v>1</v>
       </c>
@@ -1727,13 +1752,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="59">
@@ -1750,13 +1775,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="59">
@@ -1773,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="59">
@@ -1796,13 +1821,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="59">
@@ -1819,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="59">
@@ -1842,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="59">
@@ -1857,77 +1882,73 @@
       <c r="I20" s="27"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="4">
+      <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="56">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="8"/>
+      <c r="C21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="4">
+      <c r="B22" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="56">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="8"/>
+      <c r="C22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="59">
+        <v>1</v>
+      </c>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H23" s="56">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -1936,23 +1957,23 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>46</v>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H24" s="56">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="I24" s="8"/>
     </row>
@@ -1965,19 +1986,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H25" s="56">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="I25" s="8"/>
     </row>
@@ -1990,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="H26" s="56">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I26" s="8"/>
     </row>
@@ -2015,16 +2036,16 @@
         <v>8</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H27" s="56">
         <v>0.3</v>
@@ -2040,19 +2061,19 @@
         <v>8</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="H28" s="56">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -2065,19 +2086,19 @@
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H29" s="56">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8"/>
     </row>
@@ -2090,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H30" s="56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I30" s="8"/>
     </row>
@@ -2115,19 +2136,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H31" s="56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I31" s="8"/>
     </row>
@@ -2140,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H32" s="56">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I32" s="8"/>
     </row>
@@ -2165,19 +2186,19 @@
         <v>8</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H33" s="56">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="8"/>
     </row>
@@ -2190,19 +2211,19 @@
         <v>8</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H34" s="56">
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I34" s="8"/>
     </row>
@@ -2215,121 +2236,121 @@
         <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H35" s="56">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
-        <f t="shared" ref="B36:B67" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H36" s="56">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" s="56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="11">
-        <f t="shared" si="1"/>
+      <c r="B38" s="4">
+        <f t="shared" ref="B38:B69" si="1">ROW()-2</f>
         <v>36</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="55">
-        <v>1</v>
-      </c>
-      <c r="I38" s="15"/>
+      <c r="C38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="56">
+        <v>0.03</v>
+      </c>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="11">
+      <c r="B39" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="I39" s="15"/>
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="56">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="11">
@@ -2337,22 +2358,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="G40" s="14" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H40" s="55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I40" s="15"/>
     </row>
@@ -2361,23 +2382,23 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>81</v>
+      <c r="C41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H41" s="55">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I41" s="15"/>
     </row>
@@ -2386,23 +2407,23 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>81</v>
+      <c r="C42" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H42" s="55">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I42" s="15"/>
     </row>
@@ -2412,22 +2433,22 @@
         <v>41</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H43" s="55">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I43" s="15"/>
     </row>
@@ -2437,22 +2458,22 @@
         <v>42</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H44" s="55">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I44" s="15"/>
     </row>
@@ -2462,22 +2483,22 @@
         <v>43</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H45" s="55">
-        <v>0.94</v>
+        <v>0.1</v>
       </c>
       <c r="I45" s="15"/>
     </row>
@@ -2487,22 +2508,22 @@
         <v>44</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H46" s="55">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I46" s="15"/>
     </row>
@@ -2512,22 +2533,22 @@
         <v>45</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>166</v>
+        <v>79</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H47" s="55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I47" s="15"/>
     </row>
@@ -2537,74 +2558,74 @@
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H48" s="55">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="28">
+      <c r="B49" s="11">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="32"/>
+      <c r="C49" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="28">
+      <c r="B50" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="54">
-        <v>0.9</v>
-      </c>
-      <c r="I50" s="32"/>
+      <c r="C50" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="28">
@@ -2612,22 +2633,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="F51" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="G51" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="54">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>12</v>
       </c>
       <c r="I51" s="32"/>
     </row>
@@ -2636,23 +2657,23 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>104</v>
+      <c r="C52" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H52" s="54">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I52" s="32"/>
     </row>
@@ -2661,23 +2682,23 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>104</v>
+      <c r="C53" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H53" s="54">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I53" s="32"/>
     </row>
@@ -2687,19 +2708,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H54" s="54">
         <v>0</v>
@@ -2712,22 +2733,22 @@
         <v>53</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="H55" s="54">
+        <v>0.4</v>
       </c>
       <c r="I55" s="32"/>
     </row>
@@ -2737,22 +2758,22 @@
         <v>54</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H56" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="32"/>
     </row>
@@ -2762,22 +2783,22 @@
         <v>55</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" s="54">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>12</v>
       </c>
       <c r="I57" s="32"/>
     </row>
@@ -2787,21 +2808,23 @@
         <v>56</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>165</v>
+        <v>102</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="54"/>
+        <v>66</v>
+      </c>
+      <c r="H58" s="54">
+        <v>1</v>
+      </c>
       <c r="I58" s="32"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.4">
@@ -2810,19 +2833,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="H59" s="54">
         <v>1</v>
@@ -2830,77 +2853,75 @@
       <c r="I59" s="32"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="35">
+      <c r="B60" s="28">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C60" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="I60" s="40"/>
+      <c r="C60" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="54"/>
+      <c r="I60" s="32"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="35">
+      <c r="B61" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H61" s="60">
-        <v>0.8</v>
-      </c>
-      <c r="I61" s="40"/>
+      <c r="C61" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="54">
+        <v>1</v>
+      </c>
+      <c r="I61" s="32"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="35">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="F62" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E62" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="53">
-        <v>0.7</v>
+      <c r="G62" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" s="60">
+        <v>0.1</v>
       </c>
       <c r="I62" s="40"/>
     </row>
@@ -2910,22 +2931,22 @@
         <v>61</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="G63" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H63" s="53">
-        <v>0.7</v>
+        <v>128</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="60">
+        <v>0.8</v>
       </c>
       <c r="I63" s="40"/>
     </row>
@@ -2935,19 +2956,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>59</v>
+        <v>130</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="H64" s="53">
         <v>0.7</v>
@@ -2960,21 +2981,21 @@
         <v>63</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" s="61">
+        <v>52</v>
+      </c>
+      <c r="H65" s="53">
         <v>0.7</v>
       </c>
       <c r="I65" s="40"/>
@@ -2985,22 +3006,22 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>140</v>
+        <v>125</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H66" s="61">
-        <v>0.5</v>
+        <v>57</v>
+      </c>
+      <c r="H66" s="53">
+        <v>0.7</v>
       </c>
       <c r="I66" s="40"/>
     </row>
@@ -3010,97 +3031,97 @@
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H67" s="53">
-        <v>0.3</v>
+        <v>57</v>
+      </c>
+      <c r="H67" s="61">
+        <v>0.7</v>
       </c>
       <c r="I67" s="40"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B68" s="35">
-        <f t="shared" ref="B68:B76" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>138</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="H68" s="53">
-        <v>0.9</v>
+        <v>57</v>
+      </c>
+      <c r="H68" s="61">
+        <v>0.5</v>
       </c>
       <c r="I68" s="40"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>145</v>
+        <v>125</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>113</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H69" s="53">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B70:B78" si="2">ROW()-2</f>
         <v>68</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H70" s="53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I70" s="40"/>
     </row>
@@ -3109,23 +3130,23 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C71" s="44" t="s">
-        <v>126</v>
+      <c r="C71" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H71" s="53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I71" s="40"/>
     </row>
@@ -3134,23 +3155,23 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C72" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>127</v>
+      <c r="C72" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>125</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H72" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I72" s="40"/>
     </row>
@@ -3160,22 +3181,22 @@
         <v>71</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>125</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H73" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I73" s="40"/>
     </row>
@@ -3185,19 +3206,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H74" s="53">
         <v>0.9</v>
@@ -3210,22 +3231,22 @@
         <v>73</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75" s="48" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H75" s="53">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I75" s="40"/>
     </row>
@@ -3235,44 +3256,94 @@
         <v>74</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F76" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" s="53">
+        <v>0.9</v>
+      </c>
+      <c r="I76" s="40"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B77" s="35">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="35">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F78" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="G76" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="H76" s="53">
+      <c r="H78" s="53">
         <v>0.95</v>
       </c>
-      <c r="I76" s="40"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="H77" s="62">
-        <f>AVERAGE(H3:H76)</f>
-        <v>0.62701492537313419</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="I78" s="40"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
+      <c r="H79" s="62">
+        <f>AVERAGE(H3:H78)</f>
+        <v>0.64791044776119411</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -3280,8 +3351,8 @@
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G157">
-    <sortCondition ref="D11:D157"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G159">
+    <sortCondition ref="D11:D159"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3289,21 +3360,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3435,24 +3491,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3468,4 +3522,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99532920-BA9F-4ECC-BFEA-A82AEE14AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F69F3E-AE76-4C18-BD3F-48D8FBFCF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1412,8 +1412,8 @@
   <dimension ref="B2:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2048,7 +2048,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="56">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2073,7 +2073,7 @@
         <v>167</v>
       </c>
       <c r="H28" s="56">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -2323,7 +2323,7 @@
         <v>57</v>
       </c>
       <c r="H38" s="56">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="I38" s="8"/>
     </row>
@@ -3021,7 +3021,7 @@
         <v>57</v>
       </c>
       <c r="H66" s="53">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I66" s="40"/>
     </row>
@@ -3046,7 +3046,7 @@
         <v>57</v>
       </c>
       <c r="H67" s="61">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I67" s="40"/>
     </row>
@@ -3330,7 +3330,7 @@
       <c r="D79" s="2"/>
       <c r="H79" s="62">
         <f>AVERAGE(H3:H78)</f>
-        <v>0.64791044776119411</v>
+        <v>0.65447761194029852</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
@@ -3360,6 +3360,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3491,22 +3506,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3522,21 +3539,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99532920-BA9F-4ECC-BFEA-A82AEE14AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F643C-6DA5-48AB-A068-FCC463974E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="180">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -274,9 +274,6 @@
     <t>レビュー一覧ログイン前</t>
   </si>
   <si>
-    <t>レビュー一覧ログイン後</t>
-  </si>
-  <si>
     <t>LogoutServlet.java</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
   </si>
   <si>
     <t>ランキングjs</t>
-  </si>
-  <si>
-    <t>post.js</t>
   </si>
   <si>
     <t>レビュー投稿js</t>
@@ -543,10 +537,6 @@
   </si>
   <si>
     <t>review_bf.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Review_afServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -633,6 +623,10 @@
   </si>
   <si>
     <t>伊藤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1409,11 +1403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:I82"/>
+  <dimension ref="B2:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1457,7 +1451,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="19">
-        <f t="shared" ref="B3:B37" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B36" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -1473,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H3" s="58">
         <v>0.9</v>
@@ -1495,13 +1489,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H4" s="58">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="23"/>
     </row>
@@ -1546,10 +1540,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H6" s="58">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="23"/>
     </row>
@@ -1591,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H8" s="58">
         <v>0.1</v>
@@ -1616,11 +1610,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="58" t="s">
-        <v>12</v>
+        <v>167</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.7</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1641,9 +1637,11 @@
       <c r="F10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="58" t="s">
-        <v>12</v>
+      <c r="G10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="58">
+        <v>0.7</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1665,7 +1663,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H11" s="58">
         <v>1</v>
@@ -1684,13 +1682,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="23"/>
@@ -1736,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H14" s="59">
         <v>1</v>
@@ -1827,7 +1825,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="59">
@@ -1893,13 +1891,13 @@
         <v>26</v>
       </c>
       <c r="E21" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>181</v>
       </c>
       <c r="H21" s="59"/>
       <c r="I21" s="27"/>
@@ -2064,13 +2062,13 @@
         <v>44</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H28" s="56">
         <v>0.03</v>
@@ -2089,7 +2087,7 @@
         <v>44</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>58</v>
@@ -2214,7 +2212,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>69</v>
@@ -2223,7 +2221,7 @@
         <v>70</v>
       </c>
       <c r="H34" s="56">
-        <v>0.55000000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="I34" s="8"/>
     </row>
@@ -2239,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>71</v>
@@ -2248,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="H35" s="56">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I35" s="8"/>
     </row>
@@ -2264,22 +2262,22 @@
         <v>44</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H36" s="56">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B37:B68" si="1">ROW()-2</f>
         <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -2289,22 +2287,22 @@
         <v>44</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H37" s="56">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
-        <f t="shared" ref="B38:B69" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2314,43 +2312,43 @@
         <v>44</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H38" s="56">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="4">
+      <c r="B39" s="11">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="C39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="56">
+      <c r="D39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="55">
         <v>1</v>
       </c>
-      <c r="I39" s="8"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="11">
@@ -2358,22 +2356,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="G40" s="14" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H40" s="55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I40" s="15"/>
     </row>
@@ -2383,22 +2381,22 @@
         <v>39</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H41" s="55">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I41" s="15"/>
     </row>
@@ -2407,17 +2405,17 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>52</v>
@@ -2433,22 +2431,22 @@
         <v>41</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H43" s="55">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I43" s="15"/>
     </row>
@@ -2458,22 +2456,22 @@
         <v>42</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H44" s="55">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="I44" s="15"/>
     </row>
@@ -2483,22 +2481,22 @@
         <v>43</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>90</v>
+      <c r="E45" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H45" s="55">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I45" s="15"/>
     </row>
@@ -2508,19 +2506,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>92</v>
+      <c r="E46" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H46" s="55">
         <v>1</v>
@@ -2533,22 +2531,22 @@
         <v>45</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H47" s="55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I47" s="15"/>
     </row>
@@ -2558,13 +2556,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>96</v>
+      <c r="E48" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>97</v>
@@ -2573,7 +2571,7 @@
         <v>70</v>
       </c>
       <c r="H48" s="55">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="I48" s="15"/>
     </row>
@@ -2583,49 +2581,49 @@
         <v>47</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>164</v>
+      <c r="E49" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H49" s="55">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="11">
+      <c r="B50" s="28">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="11" t="s">
+      <c r="C50" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="I50" s="15"/>
+      <c r="D50" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="28">
@@ -2633,22 +2631,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="30" t="s">
-        <v>102</v>
-      </c>
       <c r="E51" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="45" t="s">
         <v>104</v>
       </c>
+      <c r="F51" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="G51" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="H51" s="54">
+        <v>0.9</v>
       </c>
       <c r="I51" s="32"/>
     </row>
@@ -2658,22 +2656,22 @@
         <v>50</v>
       </c>
       <c r="C52" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>102</v>
-      </c>
       <c r="E52" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H52" s="54">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I52" s="32"/>
     </row>
@@ -2682,17 +2680,17 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>102</v>
-      </c>
       <c r="E53" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>52</v>
@@ -2708,22 +2706,22 @@
         <v>52</v>
       </c>
       <c r="C54" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="46" t="s">
-        <v>102</v>
-      </c>
       <c r="E54" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H54" s="54">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I54" s="32"/>
     </row>
@@ -2733,22 +2731,22 @@
         <v>53</v>
       </c>
       <c r="C55" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="46" t="s">
-        <v>102</v>
-      </c>
       <c r="E55" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H55" s="54">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I55" s="32"/>
     </row>
@@ -2758,22 +2756,22 @@
         <v>54</v>
       </c>
       <c r="C56" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>113</v>
+      <c r="E56" s="47" t="s">
+        <v>114</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="54">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>12</v>
       </c>
       <c r="I56" s="32"/>
     </row>
@@ -2783,22 +2781,22 @@
         <v>55</v>
       </c>
       <c r="C57" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>115</v>
+      <c r="E57" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H57" s="54" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="H57" s="54">
+        <v>1</v>
       </c>
       <c r="I57" s="32"/>
     </row>
@@ -2808,22 +2806,22 @@
         <v>56</v>
       </c>
       <c r="C58" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="46" t="s">
-        <v>102</v>
-      </c>
       <c r="E58" s="28" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>118</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H58" s="54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I58" s="32"/>
     </row>
@@ -2833,22 +2831,22 @@
         <v>57</v>
       </c>
       <c r="C59" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="28" t="s">
         <v>119</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>120</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>70</v>
       </c>
       <c r="H59" s="54">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I59" s="32"/>
     </row>
@@ -2858,70 +2856,72 @@
         <v>58</v>
       </c>
       <c r="C60" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="47" t="s">
-        <v>163</v>
+      <c r="E60" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="54"/>
+      <c r="G60" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="54">
+        <v>1</v>
+      </c>
       <c r="I60" s="32"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="28">
+      <c r="B61" s="35">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="28" t="s">
+      <c r="C61" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="D61" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H61" s="54">
-        <v>1</v>
-      </c>
-      <c r="I61" s="32"/>
+      <c r="E61" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="I61" s="40"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="35">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C62" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>125</v>
+      <c r="C62" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="52" t="s">
         <v>47</v>
       </c>
       <c r="H62" s="60">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I62" s="40"/>
     </row>
@@ -2931,22 +2931,22 @@
         <v>61</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="G63" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="60">
-        <v>0.8</v>
+      <c r="G63" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="53">
+        <v>0.7</v>
       </c>
       <c r="I63" s="40"/>
     </row>
@@ -2956,10 +2956,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>130</v>
@@ -2967,7 +2967,7 @@
       <c r="F64" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" s="39" t="s">
         <v>52</v>
       </c>
       <c r="H64" s="53">
@@ -2981,19 +2981,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="48" t="s">
+      <c r="F65" s="35" t="s">
         <v>133</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H65" s="53">
         <v>0.7</v>
@@ -3006,10 +3006,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E66" s="35" t="s">
         <v>134</v>
@@ -3020,7 +3020,7 @@
       <c r="G66" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H66" s="53">
+      <c r="H66" s="61">
         <v>0.7</v>
       </c>
       <c r="I66" s="40"/>
@@ -3031,12 +3031,12 @@
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="43" t="s">
         <v>136</v>
       </c>
       <c r="F67" s="35" t="s">
@@ -3046,7 +3046,7 @@
         <v>57</v>
       </c>
       <c r="H67" s="61">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I67" s="40"/>
     </row>
@@ -3056,60 +3056,60 @@
         <v>66</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E68" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F68" s="35" t="s">
-        <v>139</v>
-      </c>
       <c r="G68" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="61">
-        <v>0.5</v>
+        <v>52</v>
+      </c>
+      <c r="H68" s="53">
+        <v>0.3</v>
       </c>
       <c r="I68" s="40"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B69:B77" si="2">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="F69" s="35" t="s">
         <v>140</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H69" s="53">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" s="35">
-        <f t="shared" ref="B70:B78" si="2">ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E70" s="35" t="s">
         <v>141</v>
@@ -3131,10 +3131,10 @@
         <v>69</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" s="35" t="s">
         <v>143</v>
@@ -3143,10 +3143,10 @@
         <v>144</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H71" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I71" s="40"/>
     </row>
@@ -3155,11 +3155,11 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C72" s="41" t="s">
-        <v>124</v>
+      <c r="C72" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E72" s="35" t="s">
         <v>145</v>
@@ -3181,10 +3181,10 @@
         <v>71</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="E73" s="35" t="s">
         <v>147</v>
@@ -3193,7 +3193,7 @@
         <v>148</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H73" s="53">
         <v>1</v>
@@ -3206,22 +3206,22 @@
         <v>72</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E74" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="35" t="s">
         <v>149</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>150</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H74" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I74" s="40"/>
     </row>
@@ -3231,13 +3231,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F75" s="35" t="s">
         <v>151</v>
@@ -3246,7 +3246,7 @@
         <v>70</v>
       </c>
       <c r="H75" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I75" s="40"/>
     </row>
@@ -3256,22 +3256,22 @@
         <v>74</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E76" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="35" t="s">
+      <c r="F76" s="48" t="s">
         <v>153</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H76" s="53">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I76" s="40"/>
     </row>
@@ -3281,57 +3281,36 @@
         <v>75</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="H77" s="53">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I77" s="40"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B78" s="35">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="F78" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="G78" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H78" s="53">
-        <v>0.95</v>
-      </c>
-      <c r="I78" s="40"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="H78" s="62">
+        <f>AVERAGE(H3:H77)</f>
+        <v>0.6805797101449278</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="H79" s="62">
-        <f>AVERAGE(H3:H78)</f>
-        <v>0.64791044776119411</v>
-      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C80" s="2"/>
@@ -3340,10 +3319,6 @@
     <row r="81" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -3351,8 +3326,8 @@
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G159">
-    <sortCondition ref="D11:D159"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G158">
+    <sortCondition ref="D11:D158"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F643C-6DA5-48AB-A068-FCC463974E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3BE4E-9A25-4B63-BD98-6A81C5A9158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1406,8 +1406,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2046,7 +2046,7 @@
         <v>57</v>
       </c>
       <c r="H27" s="56">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2071,7 +2071,7 @@
         <v>164</v>
       </c>
       <c r="H28" s="56">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -2296,7 +2296,7 @@
         <v>57</v>
       </c>
       <c r="H37" s="56">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="I37" s="8"/>
     </row>
@@ -2996,7 +2996,7 @@
         <v>57</v>
       </c>
       <c r="H65" s="53">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I65" s="40"/>
     </row>
@@ -3305,7 +3305,7 @@
       <c r="D78" s="2"/>
       <c r="H78" s="62">
         <f>AVERAGE(H3:H77)</f>
-        <v>0.6805797101449278</v>
+        <v>0.69637681159420306</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
@@ -3335,6 +3335,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3466,22 +3481,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3497,21 +3514,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3BE4E-9A25-4B63-BD98-6A81C5A9158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA06E31-B627-4408-BB5F-2352384C8B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1406,8 +1406,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1495,7 +1495,7 @@
         <v>165</v>
       </c>
       <c r="H4" s="58">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="23"/>
     </row>
@@ -1516,9 +1516,11 @@
       <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="58" t="s">
-        <v>12</v>
+      <c r="G5" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0.9</v>
       </c>
       <c r="I5" s="23"/>
     </row>
@@ -1564,9 +1566,11 @@
       <c r="F7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="58" t="s">
-        <v>12</v>
+      <c r="G7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="58">
+        <v>0.9</v>
       </c>
       <c r="I7" s="23"/>
     </row>
@@ -1899,7 +1903,9 @@
       <c r="G21" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="59"/>
+      <c r="H21" s="59">
+        <v>1</v>
+      </c>
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
@@ -3305,7 +3311,7 @@
       <c r="D78" s="2"/>
       <c r="H78" s="62">
         <f>AVERAGE(H3:H77)</f>
-        <v>0.69637681159420306</v>
+        <v>0.70763888888888893</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
@@ -3335,21 +3341,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3481,24 +3472,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3514,4 +3503,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA06E31-B627-4408-BB5F-2352384C8B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFE2BD0-B182-4534-87E3-8FAA004CDC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1406,8 +1406,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2227,7 +2227,7 @@
         <v>70</v>
       </c>
       <c r="H34" s="56">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I34" s="8"/>
     </row>
@@ -2827,7 +2827,7 @@
         <v>70</v>
       </c>
       <c r="H58" s="54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I58" s="32"/>
     </row>
@@ -3311,7 +3311,7 @@
       <c r="D78" s="2"/>
       <c r="H78" s="62">
         <f>AVERAGE(H3:H77)</f>
-        <v>0.70763888888888893</v>
+        <v>0.7104166666666667</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFE2BD0-B182-4534-87E3-8FAA004CDC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28C0280-9BDB-467E-BA2A-81F2927FAB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="178">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -94,9 +94,6 @@
     <t>m_userテーブルにアクセスするDAO</t>
   </si>
   <si>
-    <t>％</t>
-  </si>
-  <si>
     <t>MasterVideoDao.java</t>
   </si>
   <si>
@@ -235,16 +232,7 @@
     <t>フォロー/フォロワー一覧</t>
   </si>
   <si>
-    <t>Result_bfServlet.java</t>
-  </si>
-  <si>
-    <t>検索結果ログイン前</t>
-  </si>
-  <si>
     <t>高山</t>
-  </si>
-  <si>
-    <t>Result_afServlet.java</t>
   </si>
   <si>
     <t>検索結果ログイン後</t>
@@ -627,6 +615,14 @@
   </si>
   <si>
     <t>post.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Top.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -697,7 +693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,6 +745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1088,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,8 +1426,8 @@
   <dimension ref="B2:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1467,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H3" s="58">
         <v>0.9</v>
@@ -1486,13 +1506,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H4" s="58">
         <v>0.9</v>
@@ -1511,13 +1531,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H5" s="58">
         <v>0.9</v>
@@ -1525,29 +1545,29 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="19">
+      <c r="B6" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" s="58">
+      <c r="G6" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="67">
         <v>0.9</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="19">
@@ -1561,13 +1581,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H7" s="58">
         <v>0.9</v>
@@ -1586,13 +1606,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H8" s="58">
         <v>0.1</v>
@@ -1611,16 +1631,16 @@
         <v>9</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H9" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1636,16 +1656,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H10" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1661,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H11" s="58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1686,15 +1706,17 @@
         <v>9</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="58">
+        <v>0.8</v>
+      </c>
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
@@ -1706,13 +1728,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="59">
@@ -1729,16 +1751,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>30</v>
-      </c>
       <c r="G14" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H14" s="59">
         <v>1</v>
@@ -1754,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="59">
@@ -1777,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>34</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="59">
@@ -1800,13 +1822,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="59">
@@ -1823,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="59">
@@ -1846,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="59">
@@ -1869,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>41</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="59">
@@ -1892,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H21" s="59">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I21" s="27"/>
     </row>
@@ -1917,44 +1939,42 @@
         <v>8</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="26"/>
+        <v>177</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26" t="s">
+        <v>162</v>
+      </c>
       <c r="H22" s="59">
         <v>1</v>
       </c>
       <c r="I22" s="27"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="4">
+      <c r="B23" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="56">
-        <v>0.25</v>
-      </c>
-      <c r="I23" s="8"/>
+      <c r="C23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="59">
+        <v>1</v>
+      </c>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
@@ -1965,16 +1985,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="56">
         <v>0.25</v>
@@ -1986,23 +2006,23 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>44</v>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H25" s="56">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I25" s="8"/>
     </row>
@@ -2015,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="56">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="I26" s="8"/>
     </row>
@@ -2040,19 +2060,19 @@
         <v>8</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H27" s="56">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2065,19 +2085,19 @@
         <v>8</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="H28" s="56">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -2090,19 +2110,19 @@
         <v>8</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H29" s="56">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I29" s="8"/>
     </row>
@@ -2115,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H30" s="56">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I30" s="8"/>
     </row>
@@ -2140,19 +2160,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H31" s="56">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I31" s="8"/>
     </row>
@@ -2165,16 +2185,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H32" s="56">
         <v>0.2</v>
@@ -2190,16 +2210,16 @@
         <v>8</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H33" s="56">
         <v>0.2</v>
@@ -2215,16 +2235,16 @@
         <v>8</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H34" s="56">
         <v>1</v>
@@ -2240,16 +2260,16 @@
         <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H35" s="56">
         <v>0.3</v>
@@ -2265,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" s="56">
         <v>0.5</v>
@@ -2290,16 +2310,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H37" s="56">
         <v>0.2</v>
@@ -2315,16 +2335,16 @@
         <v>8</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="56">
         <v>1</v>
@@ -2337,19 +2357,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H39" s="55">
         <v>1</v>
@@ -2362,19 +2382,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="G40" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" s="55">
         <v>0.9</v>
@@ -2387,19 +2407,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H41" s="55">
         <v>0.8</v>
@@ -2412,19 +2432,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" s="55">
         <v>0.8</v>
@@ -2437,19 +2457,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43" s="55">
         <v>0.6</v>
@@ -2462,22 +2482,22 @@
         <v>42</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="55">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I44" s="15"/>
     </row>
@@ -2487,19 +2507,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H45" s="55">
         <v>1</v>
@@ -2512,19 +2532,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H46" s="55">
         <v>1</v>
@@ -2537,19 +2557,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H47" s="55">
         <v>0.9</v>
@@ -2562,19 +2582,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H48" s="55">
         <v>0.6</v>
@@ -2587,19 +2607,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" s="55">
         <v>0.8</v>
@@ -2612,22 +2632,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="H50" s="54">
+        <v>0</v>
       </c>
       <c r="I50" s="32"/>
     </row>
@@ -2637,19 +2657,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="F51" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="G51" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" s="54">
         <v>0.9</v>
@@ -2662,19 +2682,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" s="54">
         <v>0</v>
@@ -2687,19 +2707,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" s="54">
         <v>0</v>
@@ -2712,19 +2732,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H54" s="54">
         <v>0.4</v>
@@ -2737,19 +2757,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="54">
         <v>0</v>
@@ -2762,22 +2782,22 @@
         <v>54</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H56" s="54" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="H56" s="54">
+        <v>0</v>
       </c>
       <c r="I56" s="32"/>
     </row>
@@ -2787,19 +2807,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H57" s="54">
         <v>1</v>
@@ -2812,19 +2832,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H58" s="54">
         <v>1</v>
@@ -2837,19 +2857,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H59" s="54">
         <v>0.6</v>
@@ -2862,19 +2882,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H60" s="54">
         <v>1</v>
@@ -2887,19 +2907,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G61" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" s="60">
         <v>0.1</v>
@@ -2912,19 +2932,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="F62" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>127</v>
-      </c>
       <c r="G62" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" s="60">
         <v>0.8</v>
@@ -2937,19 +2957,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G63" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" s="53">
         <v>0.7</v>
@@ -2962,19 +2982,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" s="53">
         <v>0.7</v>
@@ -2987,19 +3007,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H65" s="53">
         <v>0.75</v>
@@ -3012,19 +3032,19 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H66" s="61">
         <v>0.7</v>
@@ -3037,19 +3057,19 @@
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H67" s="61">
         <v>0.5</v>
@@ -3062,22 +3082,22 @@
         <v>66</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H68" s="53">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="I68" s="40"/>
     </row>
@@ -3087,19 +3107,19 @@
         <v>67</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H69" s="53">
         <v>0.9</v>
@@ -3112,19 +3132,19 @@
         <v>68</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H70" s="53">
         <v>0.9</v>
@@ -3137,19 +3157,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H71" s="53">
         <v>1</v>
@@ -3162,19 +3182,19 @@
         <v>70</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H72" s="53">
         <v>1</v>
@@ -3187,19 +3207,19 @@
         <v>71</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H73" s="53">
         <v>1</v>
@@ -3212,19 +3232,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H74" s="53">
         <v>1</v>
@@ -3237,19 +3257,19 @@
         <v>73</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H75" s="53">
         <v>1</v>
@@ -3262,19 +3282,19 @@
         <v>74</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H76" s="53">
         <v>0.8</v>
@@ -3287,19 +3307,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H77" s="53">
         <v>0.95</v>
@@ -3311,7 +3331,7 @@
       <c r="D78" s="2"/>
       <c r="H78" s="62">
         <f>AVERAGE(H3:H77)</f>
-        <v>0.7104166666666667</v>
+        <v>0.7373333333333334</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28C0280-9BDB-467E-BA2A-81F2927FAB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D292C3-4126-469A-BCB9-D4B56666A4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -750,7 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,7 +1427,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3361,6 +3361,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3492,22 +3507,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3523,21 +3540,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D292C3-4126-469A-BCB9-D4B56666A4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE78619-1518-47CA-AF58-F054D04EE4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="181">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -623,6 +623,18 @@
   </si>
   <si>
     <t>Top.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reviewdata.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Replydata.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reactiondata.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1423,11 +1435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:I81"/>
+  <dimension ref="B2:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1471,7 +1483,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="19">
-        <f t="shared" ref="B3:B36" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B39" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -1564,9 +1576,7 @@
       <c r="G6" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="67">
-        <v>0.9</v>
-      </c>
+      <c r="H6" s="67"/>
       <c r="I6" s="68"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
@@ -1615,7 +1625,7 @@
         <v>162</v>
       </c>
       <c r="H8" s="58">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1640,7 +1650,7 @@
         <v>160</v>
       </c>
       <c r="H9" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1665,7 +1675,7 @@
         <v>160</v>
       </c>
       <c r="H10" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1871,14 +1881,14 @@
         <v>25</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="H19" s="59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I19" s="27"/>
     </row>
@@ -1894,10 +1904,10 @@
         <v>25</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="59">
@@ -1917,16 +1927,14 @@
         <v>25</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>173</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F21" s="24"/>
       <c r="G21" s="26" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H21" s="59">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="I21" s="27"/>
     </row>
@@ -1942,12 +1950,12 @@
         <v>25</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26" t="s">
-        <v>162</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="26"/>
       <c r="H22" s="59">
         <v>1</v>
       </c>
@@ -1965,114 +1973,110 @@
         <v>25</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="26"/>
+        <v>180</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="H23" s="59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I23" s="27"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="4">
+      <c r="B24" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="56">
-        <v>0.25</v>
-      </c>
-      <c r="I24" s="8"/>
+      <c r="C24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
+      <c r="B25" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="I25" s="8"/>
+      <c r="C25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="59">
+        <v>1</v>
+      </c>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="4">
+      <c r="B26" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="56">
+      <c r="C26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="59">
         <v>1</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H27" s="56">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2081,23 +2085,23 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H28" s="56">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -2113,16 +2117,16 @@
         <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="H29" s="56">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8"/>
     </row>
@@ -2138,16 +2142,16 @@
         <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H30" s="56">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="I30" s="8"/>
     </row>
@@ -2163,16 +2167,16 @@
         <v>43</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" s="56">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I31" s="8"/>
     </row>
@@ -2188,16 +2192,16 @@
         <v>43</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="H32" s="56">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="I32" s="8"/>
     </row>
@@ -2213,16 +2217,16 @@
         <v>43</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H33" s="56">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="8"/>
     </row>
@@ -2238,13 +2242,13 @@
         <v>43</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H34" s="56">
         <v>1</v>
@@ -2263,16 +2267,16 @@
         <v>43</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H35" s="56">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I35" s="8"/>
     </row>
@@ -2288,22 +2292,22 @@
         <v>43</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H36" s="56">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="4">
-        <f t="shared" ref="B37:B68" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -2313,22 +2317,22 @@
         <v>43</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H37" s="56">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -2338,116 +2342,116 @@
         <v>43</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="56">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="11">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="55">
-        <v>1</v>
-      </c>
-      <c r="I39" s="15"/>
+      <c r="H39" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="11">
-        <f t="shared" si="1"/>
+      <c r="B40" s="4">
+        <f t="shared" ref="B40:B71" si="1">ROW()-2</f>
         <v>38</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="I40" s="15"/>
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="11">
+      <c r="B41" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="14" t="s">
+      <c r="C41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="I41" s="15"/>
+      <c r="H41" s="56">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>82</v>
+      <c r="E42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H42" s="55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I42" s="15"/>
     </row>
@@ -2456,23 +2460,23 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H43" s="55">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I43" s="15"/>
     </row>
@@ -2481,23 +2485,23 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H44" s="55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I44" s="15"/>
     </row>
@@ -2512,17 +2516,17 @@
       <c r="D45" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>87</v>
+      <c r="E45" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H45" s="55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I45" s="15"/>
     </row>
@@ -2534,20 +2538,20 @@
       <c r="C46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="16" t="s">
         <v>74</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H46" s="55">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I46" s="15"/>
     </row>
@@ -2559,20 +2563,20 @@
       <c r="C47" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="16" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H47" s="55">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I47" s="15"/>
     </row>
@@ -2584,20 +2588,20 @@
       <c r="C48" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="16" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H48" s="55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I48" s="15"/>
     </row>
@@ -2613,113 +2617,113 @@
         <v>74</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H49" s="55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="28">
+      <c r="B50" s="11">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="31" t="s">
+      <c r="C50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="54">
-        <v>0</v>
-      </c>
-      <c r="I50" s="32"/>
+      <c r="H50" s="55">
+        <v>1</v>
+      </c>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="28">
+      <c r="B51" s="11">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="54">
-        <v>0.9</v>
-      </c>
-      <c r="I51" s="32"/>
+      <c r="C51" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="28">
+      <c r="B52" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="31" t="s">
+      <c r="C52" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="54">
-        <v>0</v>
-      </c>
-      <c r="I52" s="32"/>
+      <c r="H52" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H53" s="54">
         <v>0</v>
@@ -2731,23 +2735,23 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H54" s="54">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I54" s="32"/>
     </row>
@@ -2756,17 +2760,17 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>51</v>
@@ -2787,14 +2791,14 @@
       <c r="D56" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="47" t="s">
-        <v>110</v>
+      <c r="E56" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H56" s="54">
         <v>0</v>
@@ -2813,16 +2817,16 @@
         <v>97</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H57" s="54">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I57" s="32"/>
     </row>
@@ -2838,16 +2842,16 @@
         <v>97</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H58" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="32"/>
     </row>
@@ -2863,16 +2867,16 @@
         <v>97</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H59" s="54">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I59" s="32"/>
     </row>
@@ -2888,13 +2892,13 @@
         <v>97</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="H60" s="54">
         <v>1</v>
@@ -2902,102 +2906,102 @@
       <c r="I60" s="32"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="35">
+      <c r="B61" s="28">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C61" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G61" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="I61" s="40"/>
+      <c r="C61" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="54">
+        <v>1</v>
+      </c>
+      <c r="I61" s="32"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="35">
+      <c r="B62" s="28">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C62" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="60">
-        <v>0.8</v>
-      </c>
-      <c r="I62" s="40"/>
+      <c r="C62" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" s="54">
+        <v>0.6</v>
+      </c>
+      <c r="I62" s="32"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="35">
+      <c r="B63" s="28">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C63" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="50" t="s">
+      <c r="C63" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G63" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H63" s="53">
-        <v>0.7</v>
-      </c>
-      <c r="I63" s="40"/>
+      <c r="H63" s="54">
+        <v>1</v>
+      </c>
+      <c r="I63" s="32"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="35">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H64" s="53">
-        <v>0.7</v>
+        <v>120</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="60">
+        <v>0.1</v>
       </c>
       <c r="I64" s="40"/>
     </row>
@@ -3013,16 +3017,16 @@
         <v>119</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H65" s="53">
-        <v>0.75</v>
+        <v>122</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="60">
+        <v>0.8</v>
       </c>
       <c r="I65" s="40"/>
     </row>
@@ -3038,15 +3042,15 @@
         <v>119</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="61">
+        <v>124</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" s="53">
         <v>0.7</v>
       </c>
       <c r="I66" s="40"/>
@@ -3062,17 +3066,17 @@
       <c r="D67" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>133</v>
+      <c r="E67" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" s="61">
-        <v>0.5</v>
+        <v>51</v>
+      </c>
+      <c r="H67" s="53">
+        <v>0.7</v>
       </c>
       <c r="I67" s="40"/>
     </row>
@@ -3087,23 +3091,23 @@
       <c r="D68" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="43" t="s">
-        <v>108</v>
+      <c r="E68" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H68" s="53">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="I68" s="40"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69" s="35">
-        <f t="shared" ref="B69:B77" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" s="41" t="s">
@@ -3113,22 +3117,22 @@
         <v>119</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="H69" s="53">
-        <v>0.9</v>
+        <v>56</v>
+      </c>
+      <c r="H69" s="61">
+        <v>0.8</v>
       </c>
       <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C70" s="41" t="s">
@@ -3137,23 +3141,23 @@
       <c r="D70" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="35" t="s">
-        <v>137</v>
+      <c r="E70" s="43" t="s">
+        <v>132</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="H70" s="53">
-        <v>0.9</v>
+        <v>56</v>
+      </c>
+      <c r="H70" s="61">
+        <v>0.5</v>
       </c>
       <c r="I70" s="40"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B71" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C71" s="41" t="s">
@@ -3162,42 +3166,42 @@
       <c r="D71" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="35" t="s">
-        <v>139</v>
+      <c r="E71" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H71" s="53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I71" s="40"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B72" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B72:B80" si="2">ROW()-2</f>
         <v>70</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D72" s="42" t="s">
         <v>119</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H72" s="53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I72" s="40"/>
     </row>
@@ -3206,23 +3210,23 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="42" t="s">
         <v>119</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H73" s="53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I73" s="40"/>
     </row>
@@ -3231,20 +3235,20 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="42" t="s">
         <v>119</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H74" s="53">
         <v>1</v>
@@ -3259,17 +3263,17 @@
       <c r="C75" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="42" t="s">
         <v>119</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H75" s="53">
         <v>1</v>
@@ -3288,16 +3292,16 @@
         <v>119</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H76" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I76" s="40"/>
     </row>
@@ -3313,38 +3317,113 @@
         <v>119</v>
       </c>
       <c r="E77" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" s="53">
+        <v>1</v>
+      </c>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="35">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" s="53">
+        <v>1</v>
+      </c>
+      <c r="I78" s="40"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B79" s="35">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H79" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="I79" s="40"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B80" s="35">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F80" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G80" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="H77" s="53">
+      <c r="H80" s="53">
         <v>0.95</v>
       </c>
-      <c r="I77" s="40"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="H78" s="62">
-        <f>AVERAGE(H3:H77)</f>
-        <v>0.7373333333333334</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
+      <c r="H81" s="62">
+        <f>AVERAGE(H3:H80)</f>
+        <v>0.75545454545454527</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
@@ -3352,8 +3431,8 @@
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G158">
-    <sortCondition ref="D11:D158"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G161">
+    <sortCondition ref="D11:D161"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3367,15 +3446,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AC5309145EA1814EBD2846E28C5317E2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b902039f9b89433e1b9a88871ac1bed1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63a85d34-499a-47c1-a6c3-3f1f522599ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5dec7e48f7f6e468ac8f8d411044250" ns3:_="">
     <xsd:import namespace="63a85d34-499a-47c1-a6c3-3f1f522599ca"/>
@@ -3507,6 +3577,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
@@ -3517,14 +3596,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C053A094-AC25-4076-B782-53449937FD1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3540,4 +3611,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE78619-1518-47CA-AF58-F054D04EE4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745721B-3E11-48DE-9BA3-FAB0D9C6AD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1437,9 +1437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2151,7 +2151,7 @@
         <v>51</v>
       </c>
       <c r="H30" s="56">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="I30" s="8"/>
     </row>
@@ -2376,7 +2376,7 @@
         <v>51</v>
       </c>
       <c r="H39" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I39" s="8"/>
     </row>
@@ -2501,7 +2501,7 @@
         <v>51</v>
       </c>
       <c r="H44" s="55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I44" s="15"/>
     </row>
@@ -2526,7 +2526,7 @@
         <v>51</v>
       </c>
       <c r="H45" s="55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I45" s="15"/>
     </row>
@@ -3051,7 +3051,7 @@
         <v>51</v>
       </c>
       <c r="H66" s="53">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I66" s="40"/>
     </row>
@@ -3076,7 +3076,7 @@
         <v>51</v>
       </c>
       <c r="H67" s="53">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I67" s="40"/>
     </row>
@@ -3376,7 +3376,7 @@
         <v>51</v>
       </c>
       <c r="H79" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I79" s="40"/>
     </row>
@@ -3410,7 +3410,7 @@
       <c r="D81" s="2"/>
       <c r="H81" s="62">
         <f>AVERAGE(H3:H80)</f>
-        <v>0.75545454545454527</v>
+        <v>0.78987012987012972</v>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.4">
@@ -3440,9 +3440,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3578,19 +3581,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3614,9 +3613,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745721B-3E11-48DE-9BA3-FAB0D9C6AD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F260DC6-6DFE-4F02-86FE-97BD25D17FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1437,9 +1437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1725,7 +1725,7 @@
         <v>174</v>
       </c>
       <c r="H12" s="58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="23"/>
     </row>
@@ -2276,7 +2276,7 @@
         <v>62</v>
       </c>
       <c r="H35" s="56">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="8"/>
     </row>
@@ -2301,7 +2301,7 @@
         <v>62</v>
       </c>
       <c r="H36" s="56">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="8"/>
     </row>
@@ -2351,7 +2351,7 @@
         <v>66</v>
       </c>
       <c r="H38" s="56">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I38" s="8"/>
     </row>
@@ -2401,7 +2401,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="56">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="8"/>
     </row>
@@ -2701,7 +2701,7 @@
         <v>51</v>
       </c>
       <c r="H52" s="55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I52" s="15"/>
     </row>
@@ -3001,7 +3001,7 @@
         <v>46</v>
       </c>
       <c r="H64" s="60">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I64" s="40"/>
     </row>
@@ -3151,7 +3151,7 @@
         <v>56</v>
       </c>
       <c r="H70" s="61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I70" s="40"/>
     </row>
@@ -3201,7 +3201,7 @@
         <v>58</v>
       </c>
       <c r="H72" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I72" s="40"/>
     </row>
@@ -3226,7 +3226,7 @@
         <v>58</v>
       </c>
       <c r="H73" s="53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I73" s="40"/>
     </row>
@@ -3401,7 +3401,7 @@
         <v>167</v>
       </c>
       <c r="H80" s="53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I80" s="40"/>
     </row>
@@ -3410,7 +3410,7 @@
       <c r="D81" s="2"/>
       <c r="H81" s="62">
         <f>AVERAGE(H3:H80)</f>
-        <v>0.78987012987012972</v>
+        <v>0.85285714285714265</v>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.4">

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F260DC6-6DFE-4F02-86FE-97BD25D17FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D48E67-5FB0-4224-BAC0-8CCCFA2775FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -259,9 +259,6 @@
     <t>遠藤</t>
   </si>
   <si>
-    <t>レビュー一覧ログイン前</t>
-  </si>
-  <si>
     <t>LogoutServlet.java</t>
   </si>
   <si>
@@ -525,10 +522,6 @@
   </si>
   <si>
     <t>review_bf.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Review_bfServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -635,6 +628,14 @@
   </si>
   <si>
     <t>Reactiondata.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReviewServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー一覧</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -762,7 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,9 +1438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1499,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H3" s="58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I3" s="23"/>
     </row>
@@ -1521,13 +1522,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H4" s="58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I4" s="23"/>
     </row>
@@ -1549,10 +1550,10 @@
         <v>14</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" s="58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="23"/>
     </row>
@@ -1574,35 +1575,33 @@
         <v>16</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="68"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="19">
+      <c r="B7" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="58">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="23"/>
+      <c r="G7" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="19">
@@ -1619,13 +1618,13 @@
         <v>19</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" s="58">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1644,10 +1643,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" s="58">
         <v>0.8</v>
@@ -1655,29 +1654,27 @@
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="19">
+      <c r="B10" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="58">
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="23"/>
+      <c r="G10" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="19">
@@ -1697,10 +1694,10 @@
         <v>24</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H11" s="58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1716,13 +1713,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>170</v>
-      </c>
       <c r="G12" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H12" s="58">
         <v>1</v>
@@ -1770,7 +1767,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H14" s="59">
         <v>1</v>
@@ -1861,7 +1858,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="59">
@@ -1881,11 +1878,11 @@
         <v>25</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H19" s="59">
         <v>0.99</v>
@@ -1927,11 +1924,11 @@
         <v>25</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H21" s="59">
         <v>0.99</v>
@@ -1973,11 +1970,11 @@
         <v>25</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H23" s="59">
         <v>0.99</v>
@@ -1996,13 +1993,13 @@
         <v>25</v>
       </c>
       <c r="E24" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>173</v>
-      </c>
       <c r="G24" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H24" s="59">
         <v>0.9</v>
@@ -2021,11 +2018,11 @@
         <v>25</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H25" s="59">
         <v>1</v>
@@ -2176,7 +2173,7 @@
         <v>56</v>
       </c>
       <c r="H31" s="56">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="I31" s="8"/>
     </row>
@@ -2192,16 +2189,16 @@
         <v>43</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="H32" s="56">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="I32" s="8"/>
     </row>
@@ -2217,7 +2214,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>57</v>
@@ -2242,7 +2239,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>59</v>
@@ -2317,7 +2314,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>65</v>
@@ -2342,10 +2339,10 @@
         <v>43</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>66</v>
@@ -2367,10 +2364,10 @@
         <v>43</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>51</v>
@@ -2392,10 +2389,10 @@
         <v>43</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>56</v>
@@ -2417,10 +2414,10 @@
         <v>43</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>51</v>
@@ -2436,16 +2433,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>66</v>
@@ -2461,16 +2458,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="E43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>46</v>
@@ -2486,16 +2483,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="E44" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>51</v>
@@ -2511,16 +2508,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="E45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>51</v>
@@ -2536,22 +2533,22 @@
         <v>44</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="E46" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>56</v>
       </c>
       <c r="H46" s="55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I46" s="15"/>
     </row>
@@ -2561,16 +2558,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="E47" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>51</v>
@@ -2586,16 +2583,16 @@
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="E48" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>58</v>
@@ -2611,16 +2608,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="E49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>62</v>
@@ -2636,16 +2633,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="E50" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>66</v>
@@ -2661,22 +2658,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="E51" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>66</v>
       </c>
       <c r="H51" s="55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I51" s="15"/>
     </row>
@@ -2686,16 +2683,16 @@
         <v>50</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="E52" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>51</v>
@@ -2711,22 +2708,22 @@
         <v>51</v>
       </c>
       <c r="C53" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="E53" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="F53" s="45" t="s">
         <v>98</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>99</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>66</v>
       </c>
       <c r="H53" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="32"/>
     </row>
@@ -2736,16 +2733,16 @@
         <v>52</v>
       </c>
       <c r="C54" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="E54" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>46</v>
@@ -2761,16 +2758,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="E55" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>103</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>51</v>
@@ -2786,16 +2783,16 @@
         <v>54</v>
       </c>
       <c r="C56" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E56" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>51</v>
@@ -2811,22 +2808,22 @@
         <v>55</v>
       </c>
       <c r="C57" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E57" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>56</v>
       </c>
       <c r="H57" s="54">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I57" s="32"/>
     </row>
@@ -2836,16 +2833,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E58" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>51</v>
@@ -2861,16 +2858,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E59" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>58</v>
@@ -2886,16 +2883,16 @@
         <v>58</v>
       </c>
       <c r="C60" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E60" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>113</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>62</v>
@@ -2911,16 +2908,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E61" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>66</v>
@@ -2936,22 +2933,22 @@
         <v>60</v>
       </c>
       <c r="C62" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E62" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>66</v>
       </c>
       <c r="H62" s="54">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I62" s="32"/>
     </row>
@@ -2961,16 +2958,16 @@
         <v>61</v>
       </c>
       <c r="C63" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="E63" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>117</v>
       </c>
       <c r="G63" s="34" t="s">
         <v>51</v>
@@ -2986,16 +2983,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="E64" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="F64" s="38" t="s">
         <v>120</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>121</v>
       </c>
       <c r="G64" s="51" t="s">
         <v>46</v>
@@ -3011,16 +3008,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E65" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>123</v>
       </c>
       <c r="G65" s="52" t="s">
         <v>46</v>
@@ -3036,16 +3033,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E66" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="48" t="s">
         <v>124</v>
-      </c>
-      <c r="F66" s="48" t="s">
-        <v>125</v>
       </c>
       <c r="G66" s="50" t="s">
         <v>51</v>
@@ -3061,16 +3058,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E67" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="48" t="s">
         <v>126</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>127</v>
       </c>
       <c r="G67" s="39" t="s">
         <v>51</v>
@@ -3086,22 +3083,22 @@
         <v>66</v>
       </c>
       <c r="C68" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E68" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="35" t="s">
         <v>128</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>129</v>
       </c>
       <c r="G68" s="39" t="s">
         <v>56</v>
       </c>
       <c r="H68" s="53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I68" s="40"/>
     </row>
@@ -3111,22 +3108,22 @@
         <v>67</v>
       </c>
       <c r="C69" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E69" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="35" t="s">
         <v>130</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>131</v>
       </c>
       <c r="G69" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H69" s="61">
-        <v>0.8</v>
+      <c r="H69" s="53">
+        <v>1</v>
       </c>
       <c r="I69" s="40"/>
     </row>
@@ -3136,16 +3133,16 @@
         <v>68</v>
       </c>
       <c r="C70" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E70" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="35" t="s">
         <v>132</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>133</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>56</v>
@@ -3161,22 +3158,22 @@
         <v>69</v>
       </c>
       <c r="C71" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E71" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H71" s="53">
-        <v>0.95</v>
+      <c r="H71" s="61">
+        <v>1</v>
       </c>
       <c r="I71" s="40"/>
     </row>
@@ -3186,16 +3183,16 @@
         <v>70</v>
       </c>
       <c r="C72" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E72" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="35" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>136</v>
       </c>
       <c r="G72" s="39" t="s">
         <v>58</v>
@@ -3211,16 +3208,16 @@
         <v>71</v>
       </c>
       <c r="C73" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D73" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E73" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="35" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>138</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>58</v>
@@ -3236,16 +3233,16 @@
         <v>72</v>
       </c>
       <c r="C74" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E74" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="35" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>140</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>62</v>
@@ -3261,16 +3258,16 @@
         <v>73</v>
       </c>
       <c r="C75" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="42" t="s">
-        <v>119</v>
-      </c>
       <c r="E75" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="35" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" s="35" t="s">
-        <v>142</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>62</v>
@@ -3286,16 +3283,16 @@
         <v>74</v>
       </c>
       <c r="C76" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="E76" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="35" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" s="35" t="s">
-        <v>144</v>
       </c>
       <c r="G76" s="39" t="s">
         <v>66</v>
@@ -3311,16 +3308,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="E77" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G77" s="39" t="s">
         <v>66</v>
@@ -3336,16 +3333,16 @@
         <v>76</v>
       </c>
       <c r="C78" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="E78" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="F78" s="35" t="s">
-        <v>147</v>
       </c>
       <c r="G78" s="39" t="s">
         <v>66</v>
@@ -3361,16 +3358,16 @@
         <v>77</v>
       </c>
       <c r="C79" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D79" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="E79" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F79" s="48" t="s">
         <v>148</v>
-      </c>
-      <c r="F79" s="48" t="s">
-        <v>149</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>51</v>
@@ -3386,19 +3383,19 @@
         <v>78</v>
       </c>
       <c r="C80" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D80" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="E80" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F80" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" s="39" t="s">
         <v>165</v>
-      </c>
-      <c r="G80" s="39" t="s">
-        <v>167</v>
       </c>
       <c r="H80" s="53">
         <v>1</v>
@@ -3410,7 +3407,7 @@
       <c r="D81" s="2"/>
       <c r="H81" s="62">
         <f>AVERAGE(H3:H80)</f>
-        <v>0.85285714285714265</v>
+        <v>0.91226666666666645</v>
       </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.4">
@@ -3440,12 +3437,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3581,15 +3575,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3613,10 +3611,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>